--- a/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_pressure.xlsx
+++ b/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_pressure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,8 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ratio Moyennes</t>
+          <t>Diff Moyennes
+(données normalisées)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -487,31 +488,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.098</v>
+        <v>14.35510366826156</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7739999999999999</v>
+        <v>10.23598045652225</v>
       </c>
       <c r="D2" t="n">
-        <v>1.418604651162791</v>
+        <v>1.499907916316916</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3058103987767584</v>
+        <v>3.910715681157689</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1020364080680449</v>
+        <v>1.432994726161851</v>
       </c>
       <c r="G2" t="n">
-        <v>0.78</v>
+        <v>9.789473684210526</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6</v>
+        <v>7.911764705882353</v>
       </c>
       <c r="I2" t="n">
-        <v>1.46</v>
+        <v>19.39393939393939</v>
       </c>
       <c r="J2" t="n">
-        <v>0.99</v>
+        <v>13.35135135135135</v>
       </c>
     </row>
     <row r="3">
@@ -521,31 +522,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.328</v>
+        <v>17.30683147262095</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9793333333333334</v>
+        <v>12.97051329405819</v>
       </c>
       <c r="D3" t="n">
-        <v>1.356024506466984</v>
+        <v>1.429458588304161</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3381863391682166</v>
+        <v>4.310687550778566</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1077342409202695</v>
+        <v>1.531097965506567</v>
       </c>
       <c r="G3" t="n">
-        <v>0.97</v>
+        <v>12.1578947368421</v>
       </c>
       <c r="H3" t="n">
-        <v>0.79</v>
+        <v>10.55882352941176</v>
       </c>
       <c r="I3" t="n">
-        <v>1.7</v>
+        <v>22.51515151515152</v>
       </c>
       <c r="J3" t="n">
-        <v>1.22</v>
+        <v>16.56756756756757</v>
       </c>
     </row>
     <row r="4">
@@ -555,167 +556,167 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.242</v>
+        <v>16.18867623604465</v>
       </c>
       <c r="C4" t="n">
-        <v>0.928</v>
+        <v>12.27095076909318</v>
       </c>
       <c r="D4" t="n">
-        <v>1.338362068965517</v>
+        <v>1.419545633764868</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3191708006694848</v>
+        <v>4.079987661803182</v>
       </c>
       <c r="F4" t="n">
-        <v>0.114903686376274</v>
+        <v>1.593728564202038</v>
       </c>
       <c r="G4" t="n">
-        <v>0.89</v>
+        <v>11.1578947368421</v>
       </c>
       <c r="H4" t="n">
-        <v>0.74</v>
+        <v>9.823529411764707</v>
       </c>
       <c r="I4" t="n">
-        <v>1.61</v>
+        <v>21.3030303030303</v>
       </c>
       <c r="J4" t="n">
-        <v>1.14</v>
+        <v>15.45945945945946</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_medium_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.25</v>
+        <v>6.514460393407761</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1913333333333334</v>
+        <v>5.102178582147622</v>
       </c>
       <c r="D5" t="n">
-        <v>1.306620209059233</v>
+        <v>1.373775905796136</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02828427124746192</v>
+        <v>0.6189200661921367</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04501851470969102</v>
+        <v>0.8714620622082803</v>
       </c>
       <c r="G5" t="n">
-        <v>0.22</v>
+        <v>5.944444444444445</v>
       </c>
       <c r="H5" t="n">
-        <v>0.12</v>
+        <v>3.538461538461538</v>
       </c>
       <c r="I5" t="n">
-        <v>0.28</v>
+        <v>7.393939393939394</v>
       </c>
       <c r="J5" t="n">
-        <v>0.26</v>
+        <v>6.394736842105263</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_medium_pressure_per_match</t>
+          <t>count_low_pressures_received_per_match</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5</v>
+        <v>19.93612440191388</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3846666666666667</v>
+        <v>15.93525401392274</v>
       </c>
       <c r="D6" t="n">
-        <v>1.299826689774697</v>
+        <v>1.323045013841438</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05244044240850761</v>
+        <v>4.500737977474723</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06379281941977334</v>
+        <v>1.674957580654662</v>
       </c>
       <c r="G6" t="n">
-        <v>0.44</v>
+        <v>14.36842105263158</v>
       </c>
       <c r="H6" t="n">
-        <v>0.29</v>
+        <v>13.32352941176471</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5600000000000001</v>
+        <v>25.27272727272727</v>
       </c>
       <c r="J6" t="n">
-        <v>0.48</v>
+        <v>19.54054054054054</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_high_pressure_per_match</t>
+          <t>count_low_pressures_received_in_sample</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.362</v>
+        <v>19.93612440191388</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2853333333333334</v>
+        <v>15.93525401392274</v>
       </c>
       <c r="D7" t="n">
-        <v>1.268691588785047</v>
+        <v>1.323045013841438</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07049822692805829</v>
+        <v>4.500737977474723</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04627042663464841</v>
+        <v>1.674957580654662</v>
       </c>
       <c r="G7" t="n">
-        <v>0.29</v>
+        <v>14.36842105263158</v>
       </c>
       <c r="H7" t="n">
-        <v>0.22</v>
+        <v>13.32352941176471</v>
       </c>
       <c r="I7" t="n">
-        <v>0.45</v>
+        <v>25.27272727272727</v>
       </c>
       <c r="J7" t="n">
-        <v>0.37</v>
+        <v>19.54054054054054</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>count_low_pressures_received_per_match</t>
+          <t>dangerous_pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.526</v>
+        <v>234.071346092504</v>
       </c>
       <c r="C8" t="n">
-        <v>1.203333333333333</v>
+        <v>188.7042159215113</v>
       </c>
       <c r="D8" t="n">
-        <v>1.26814404432133</v>
+        <v>1.259977205069185</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3557808314116992</v>
+        <v>19.70194961527498</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1176961382220375</v>
+        <v>36.2969714242969</v>
       </c>
       <c r="G8" t="n">
-        <v>1.14</v>
+        <v>216.0086842105263</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>129.1665384615385</v>
       </c>
       <c r="I8" t="n">
-        <v>1.91</v>
+        <v>264.1918181818182</v>
       </c>
       <c r="J8" t="n">
-        <v>1.44</v>
+        <v>246.9302631578948</v>
       </c>
     </row>
     <row r="9">
@@ -725,31 +726,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.974</v>
+        <v>65.06722488038278</v>
       </c>
       <c r="C9" t="n">
-        <v>4.052666666666667</v>
+        <v>53.60573227737314</v>
       </c>
       <c r="D9" t="n">
-        <v>1.227340023030103</v>
+        <v>1.217719387341571</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8023278631581979</v>
+        <v>10.72266491984835</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5044157393413078</v>
+        <v>7.08913271481011</v>
       </c>
       <c r="G9" t="n">
-        <v>3.75</v>
+        <v>47.18421052631579</v>
       </c>
       <c r="H9" t="n">
-        <v>3.21</v>
+        <v>42.61764705882353</v>
       </c>
       <c r="I9" t="n">
-        <v>5.76</v>
+        <v>74.45454545454545</v>
       </c>
       <c r="J9" t="n">
-        <v>4.91</v>
+        <v>66.45945945945945</v>
       </c>
     </row>
     <row r="10">
@@ -759,1085 +760,1085 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.132</v>
+        <v>80.17142477405636</v>
       </c>
       <c r="C10" t="n">
-        <v>5.123333333333333</v>
+        <v>67.76975249055744</v>
       </c>
       <c r="D10" t="n">
-        <v>1.196877033181522</v>
+        <v>1.217306434607227</v>
       </c>
       <c r="E10" t="n">
-        <v>0.842478486372204</v>
+        <v>11.02981363550378</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4810652861346467</v>
+        <v>6.986410100674887</v>
       </c>
       <c r="G10" t="n">
-        <v>4.96</v>
+        <v>62.39473684210526</v>
       </c>
       <c r="H10" t="n">
-        <v>4.37</v>
+        <v>58.64705882352941</v>
       </c>
       <c r="I10" t="n">
-        <v>7.09</v>
+        <v>89.96969696969697</v>
       </c>
       <c r="J10" t="n">
-        <v>5.93</v>
+        <v>80.24324324324324</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_low_pressure_per_match</t>
+          <t>pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.076</v>
+        <v>632.6905536948432</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06400000000000003</v>
+        <v>553.1230995817442</v>
       </c>
       <c r="D11" t="n">
-        <v>1.187499999999999</v>
+        <v>1.210793363323476</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02880972058177586</v>
+        <v>72.99869237459815</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01242118006816238</v>
+        <v>44.38891234361983</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05</v>
+        <v>523.6849999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04</v>
+        <v>493.0574285714285</v>
       </c>
       <c r="I11" t="n">
-        <v>0.12</v>
+        <v>726.5618181818182</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09</v>
+        <v>634.8437837837838</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>count_medium_pressures_received_in_sample</t>
+          <t>count_completed_dangerous_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3410.6</v>
+        <v>3.259197235513025</v>
       </c>
       <c r="C12" t="n">
-        <v>2887.466666666667</v>
+        <v>2.54192310791382</v>
       </c>
       <c r="D12" t="n">
-        <v>1.181173808644256</v>
+        <v>1.210022508452321</v>
       </c>
       <c r="E12" t="n">
-        <v>332.4669908427001</v>
+        <v>0.3509515733190581</v>
       </c>
       <c r="F12" t="n">
-        <v>474.3033789022541</v>
+        <v>0.6135750097390572</v>
       </c>
       <c r="G12" t="n">
-        <v>2948</v>
+        <v>2.815789473684211</v>
       </c>
       <c r="H12" t="n">
-        <v>2004</v>
+        <v>1.653846153846154</v>
       </c>
       <c r="I12" t="n">
-        <v>3887</v>
+        <v>3.727272727272727</v>
       </c>
       <c r="J12" t="n">
-        <v>3624</v>
+        <v>3.54054054054054</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_medium_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.696</v>
+        <v>4.706884635832004</v>
       </c>
       <c r="C13" t="n">
-        <v>4.845333333333333</v>
+        <v>3.782242670323166</v>
       </c>
       <c r="D13" t="n">
-        <v>1.175564116675839</v>
+        <v>1.15512670907514</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7785114000449831</v>
+        <v>0.8637063819340555</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5328611004576638</v>
+        <v>0.6225732970453021</v>
       </c>
       <c r="G13" t="n">
-        <v>4.54</v>
+        <v>3.684210526315789</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>3.028571428571428</v>
       </c>
       <c r="I13" t="n">
-        <v>6.52</v>
+        <v>5.605263157894737</v>
       </c>
       <c r="J13" t="n">
-        <v>5.69</v>
+        <v>4.921052631578948</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_medium_pressure_per_match</t>
+          <t>count_ball_retentions_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.282</v>
+        <v>74.51028708133973</v>
       </c>
       <c r="C14" t="n">
-        <v>1.114</v>
+        <v>64.0611401981371</v>
       </c>
       <c r="D14" t="n">
-        <v>1.150807899461401</v>
+        <v>1.129220442170555</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1037786105129569</v>
+        <v>10.39803168261347</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1148166239830154</v>
+        <v>7.340850791662523</v>
       </c>
       <c r="G14" t="n">
-        <v>1.17</v>
+        <v>57.1578947368421</v>
       </c>
       <c r="H14" t="n">
-        <v>0.91</v>
+        <v>53.23529411764706</v>
       </c>
       <c r="I14" t="n">
-        <v>1.41</v>
+        <v>83.42424242424242</v>
       </c>
       <c r="J14" t="n">
-        <v>1.29</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>count_medium_pressures_received_per_match</t>
+          <t>dangerous_pass_completion_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.225999999999999</v>
+        <v>296.5627729930887</v>
       </c>
       <c r="C15" t="n">
-        <v>6.322000000000001</v>
+        <v>248.9776585240873</v>
       </c>
       <c r="D15" t="n">
-        <v>1.142992723821575</v>
+        <v>1.100926466709257</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7961030084103438</v>
+        <v>44.40476139713928</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5239438355941817</v>
+        <v>34.68165182836825</v>
       </c>
       <c r="G15" t="n">
-        <v>6.17</v>
+        <v>246.7133333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>5.29</v>
+        <v>200.9615384615385</v>
       </c>
       <c r="I15" t="n">
-        <v>8.18</v>
+        <v>348.8384848484848</v>
       </c>
       <c r="J15" t="n">
-        <v>7.12</v>
+        <v>311.5234285714286</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_high_pressure_per_match</t>
+          <t>count_medium_pressures_received_per_match</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.638</v>
+        <v>94.47166400850611</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5600000000000001</v>
+        <v>83.6076490895686</v>
       </c>
       <c r="D16" t="n">
-        <v>1.139285714285714</v>
+        <v>1.088693924717797</v>
       </c>
       <c r="E16" t="n">
-        <v>0.09654014708917734</v>
+        <v>10.43232543935741</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08185352771872449</v>
+        <v>7.468957464025388</v>
       </c>
       <c r="G16" t="n">
-        <v>0.53</v>
+        <v>77.57894736842105</v>
       </c>
       <c r="H16" t="n">
-        <v>0.44</v>
+        <v>71.51428571428572</v>
       </c>
       <c r="I16" t="n">
-        <v>0.74</v>
+        <v>103.8787878787879</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7</v>
+        <v>96.45945945945945</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_high_pressure_per_match</t>
+          <t>count_medium_pressures_received_in_sample</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.802</v>
+        <v>94.47166400850611</v>
       </c>
       <c r="C17" t="n">
-        <v>4.223999999999999</v>
+        <v>83.6076490895686</v>
       </c>
       <c r="D17" t="n">
-        <v>1.136837121212121</v>
+        <v>1.088693924717797</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8157634461043227</v>
+        <v>10.43232543935741</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3857978745405423</v>
+        <v>7.468957464025388</v>
       </c>
       <c r="G17" t="n">
-        <v>4.01</v>
+        <v>77.57894736842105</v>
       </c>
       <c r="H17" t="n">
-        <v>3.61</v>
+        <v>71.51428571428572</v>
       </c>
       <c r="I17" t="n">
-        <v>5.83</v>
+        <v>103.8787878787879</v>
       </c>
       <c r="J17" t="n">
-        <v>4.93</v>
+        <v>96.45945945945945</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_medium_pressure_per_match</t>
+          <t>count_difficult_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.62</v>
+        <v>16.74178628389155</v>
       </c>
       <c r="C18" t="n">
-        <v>0.55</v>
+        <v>14.73786154337238</v>
       </c>
       <c r="D18" t="n">
-        <v>1.127272727272727</v>
+        <v>1.066759153093368</v>
       </c>
       <c r="E18" t="n">
-        <v>0.03674234614174771</v>
+        <v>0.8579917712224376</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06233549779791837</v>
+        <v>1.60742309185437</v>
       </c>
       <c r="G18" t="n">
-        <v>0.57</v>
+        <v>15.80555555555556</v>
       </c>
       <c r="H18" t="n">
-        <v>0.44</v>
+        <v>11.73529411764706</v>
       </c>
       <c r="I18" t="n">
-        <v>0.66</v>
+        <v>17.76315789473684</v>
       </c>
       <c r="J18" t="n">
-        <v>0.62</v>
+        <v>17.48648648648649</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_low_pressure_per_match</t>
+          <t>ball_retention_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.12</v>
+        <v>665.2065611376927</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1066666666666667</v>
+        <v>605.3557343082833</v>
       </c>
       <c r="D19" t="n">
-        <v>1.125</v>
+        <v>0.9876474354598193</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03391164991562634</v>
+        <v>67.67820449302742</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01290994448735806</v>
+        <v>45.84591013650245</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07000000000000001</v>
+        <v>552.8044736842105</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09</v>
+        <v>545.6138235294118</v>
       </c>
       <c r="I19" t="n">
-        <v>0.16</v>
+        <v>732.4612121212122</v>
       </c>
       <c r="J19" t="n">
-        <v>0.13</v>
+        <v>682.4497142857143</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_high_pressure_per_match</t>
+          <t>count_completed_difficult_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.108</v>
+        <v>8.093646996278576</v>
       </c>
       <c r="C20" t="n">
-        <v>5.547999999999999</v>
+        <v>7.264436153739561</v>
       </c>
       <c r="D20" t="n">
-        <v>1.100937274693583</v>
+        <v>0.9565608470889262</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8777642052396533</v>
+        <v>0.3807044093820632</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3623573610993118</v>
+        <v>0.874732323456504</v>
       </c>
       <c r="G20" t="n">
-        <v>5.33</v>
+        <v>7.736842105263158</v>
       </c>
       <c r="H20" t="n">
-        <v>4.9</v>
+        <v>5.617647058823529</v>
       </c>
       <c r="I20" t="n">
-        <v>7.24</v>
+        <v>8.636363636363637</v>
       </c>
       <c r="J20" t="n">
-        <v>6.13</v>
+        <v>8.342105263157896</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_high_pressure</t>
+          <t>count_completed_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>56.004</v>
+        <v>62.68423710792132</v>
       </c>
       <c r="C21" t="n">
-        <v>51.05733333333333</v>
+        <v>55.91052908333094</v>
       </c>
       <c r="D21" t="n">
-        <v>1.096884548089729</v>
+        <v>0.9197483123533007</v>
       </c>
       <c r="E21" t="n">
-        <v>2.645974300706643</v>
+        <v>9.996482215315146</v>
       </c>
       <c r="F21" t="n">
-        <v>3.05806303463639</v>
+        <v>5.839150504302594</v>
       </c>
       <c r="G21" t="n">
-        <v>53.85</v>
+        <v>50.42105263157895</v>
       </c>
       <c r="H21" t="n">
-        <v>45.21</v>
+        <v>46.47058823529412</v>
       </c>
       <c r="I21" t="n">
-        <v>60.34</v>
+        <v>72.87878787878788</v>
       </c>
       <c r="J21" t="n">
-        <v>56.4</v>
+        <v>66.23684210526316</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.666</v>
+        <v>8.370760233918128</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6133333333333333</v>
+        <v>7.408823116315375</v>
       </c>
       <c r="D22" t="n">
-        <v>1.085869565217392</v>
+        <v>0.8617966879069188</v>
       </c>
       <c r="E22" t="n">
-        <v>0.07569676347110221</v>
+        <v>1.241928128992514</v>
       </c>
       <c r="F22" t="n">
-        <v>0.07037315505489967</v>
+        <v>1.104134934333449</v>
       </c>
       <c r="G22" t="n">
-        <v>0.55</v>
+        <v>6.842105263157895</v>
       </c>
       <c r="H22" t="n">
-        <v>0.51</v>
+        <v>5.576923076923077</v>
       </c>
       <c r="I22" t="n">
-        <v>0.73</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="J22" t="n">
-        <v>0.76</v>
+        <v>9.157894736842104</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_low_pressure</t>
+          <t>count_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>57.686</v>
+        <v>79.73354598617757</v>
       </c>
       <c r="C23" t="n">
-        <v>53.41866666666668</v>
+        <v>73.41671268247119</v>
       </c>
       <c r="D23" t="n">
-        <v>1.079884684504792</v>
+        <v>0.8160816473695697</v>
       </c>
       <c r="E23" t="n">
-        <v>5.372883769448209</v>
+        <v>10.57311949807776</v>
       </c>
       <c r="F23" t="n">
-        <v>6.30998513317998</v>
+        <v>5.994052480426662</v>
       </c>
       <c r="G23" t="n">
-        <v>50</v>
+        <v>67.07894736842105</v>
       </c>
       <c r="H23" t="n">
-        <v>38.46</v>
+        <v>61.30769230769231</v>
       </c>
       <c r="I23" t="n">
-        <v>63.89</v>
+        <v>90.44736842105263</v>
       </c>
       <c r="J23" t="n">
-        <v>63.01</v>
+        <v>82.36842105263158</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_low_pressure_per_match</t>
+          <t>count_completed_difficult_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.128</v>
+        <v>1.580595427963849</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1186666666666667</v>
+        <v>1.39769684885784</v>
       </c>
       <c r="D24" t="n">
-        <v>1.078651685393258</v>
+        <v>0.8089517837759733</v>
       </c>
       <c r="E24" t="n">
-        <v>0.04764451699828638</v>
+        <v>0.423324832869216</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0188477610139267</v>
+        <v>0.1731801919244795</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="H24" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2</v>
+        <v>2.052631578947369</v>
       </c>
       <c r="J24" t="n">
-        <v>0.14</v>
+        <v>1.736842105263158</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_low_pressure</t>
+          <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.45999999999999</v>
+        <v>8.720414673046253</v>
       </c>
       <c r="C25" t="n">
-        <v>48.93666666666666</v>
+        <v>8.100326025171226</v>
       </c>
       <c r="D25" t="n">
-        <v>1.071997820311968</v>
+        <v>0.6987571451882745</v>
       </c>
       <c r="E25" t="n">
-        <v>5.368733556435818</v>
+        <v>0.8088271180153909</v>
       </c>
       <c r="F25" t="n">
-        <v>4.512710092721711</v>
+        <v>0.9391695884526888</v>
       </c>
       <c r="G25" t="n">
-        <v>43.59</v>
+        <v>7.444444444444445</v>
       </c>
       <c r="H25" t="n">
-        <v>41.75</v>
+        <v>7</v>
       </c>
       <c r="I25" t="n">
-        <v>57.45</v>
+        <v>9.575757575757576</v>
       </c>
       <c r="J25" t="n">
-        <v>56.82</v>
+        <v>10.21052631578947</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_high_pressure_per_match</t>
+          <t>difficult_pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.308</v>
+        <v>128.3271855396066</v>
       </c>
       <c r="C26" t="n">
-        <v>2.468666666666666</v>
+        <v>116.2336224131644</v>
       </c>
       <c r="D26" t="n">
-        <v>1.069612940496822</v>
+        <v>0.6907248532933907</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1237739875741263</v>
+        <v>34.1772380569216</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1998523264336755</v>
+        <v>16.66941472231824</v>
       </c>
       <c r="G26" t="n">
-        <v>2.1</v>
+        <v>75.46305555555556</v>
       </c>
       <c r="H26" t="n">
-        <v>2.21</v>
+        <v>90.50916666666666</v>
       </c>
       <c r="I26" t="n">
-        <v>2.42</v>
+        <v>157.2368421052632</v>
       </c>
       <c r="J26" t="n">
-        <v>2.86</v>
+        <v>141.6665789473684</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_low_pressure_per_match</t>
+          <t>dangerous_pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.23</v>
+        <v>87.05914965443914</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2166666666666667</v>
+        <v>74.25870336899344</v>
       </c>
       <c r="D27" t="n">
-        <v>1.061538461538461</v>
+        <v>0.6736923207536415</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06</v>
+        <v>30.21604906558762</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01951800145897066</v>
+        <v>13.97380794585594</v>
       </c>
       <c r="G27" t="n">
-        <v>0.16</v>
+        <v>57.89473684210526</v>
       </c>
       <c r="H27" t="n">
-        <v>0.19</v>
+        <v>51.92307692307692</v>
       </c>
       <c r="I27" t="n">
-        <v>0.32</v>
+        <v>130.2631578947368</v>
       </c>
       <c r="J27" t="n">
-        <v>0.25</v>
+        <v>100.4386842105263</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_low_pressure</t>
+          <t>difficult_pass_completion_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.80999999999999</v>
+        <v>413.3022698032961</v>
       </c>
       <c r="C28" t="n">
-        <v>76.84133333333332</v>
+        <v>399.6970492807781</v>
       </c>
       <c r="D28" t="n">
-        <v>1.051647550797314</v>
+        <v>0.644191487227341</v>
       </c>
       <c r="E28" t="n">
-        <v>2.395819275321078</v>
+        <v>14.14471085426811</v>
       </c>
       <c r="F28" t="n">
-        <v>2.733189833631516</v>
+        <v>31.55145524907426</v>
       </c>
       <c r="G28" t="n">
-        <v>77.66</v>
+        <v>395.7557894736842</v>
       </c>
       <c r="H28" t="n">
-        <v>72.8</v>
+        <v>350.1386111111111</v>
       </c>
       <c r="I28" t="n">
-        <v>84.29000000000001</v>
+        <v>430.8730303030303</v>
       </c>
       <c r="J28" t="n">
-        <v>81.61</v>
+        <v>483.9828947368421</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_high_pressure_per_match</t>
+          <t>difficult_pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.366</v>
+        <v>398.1926871345029</v>
       </c>
       <c r="C29" t="n">
-        <v>1.300666666666667</v>
+        <v>386.5626780942393</v>
       </c>
       <c r="D29" t="n">
-        <v>1.050230650948232</v>
+        <v>0.6321145695752708</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1379492660364672</v>
+        <v>15.41752660574997</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1361966365573093</v>
+        <v>30.76927003940471</v>
       </c>
       <c r="G29" t="n">
-        <v>1.14</v>
+        <v>382.7755263157895</v>
       </c>
       <c r="H29" t="n">
-        <v>1.11</v>
+        <v>314.4367647058824</v>
       </c>
       <c r="I29" t="n">
-        <v>1.47</v>
+        <v>420.655</v>
       </c>
       <c r="J29" t="n">
-        <v>1.54</v>
+        <v>440.57</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_low_pressure</t>
+          <t>pass_completion_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>82.574</v>
+        <v>932.6061998936735</v>
       </c>
       <c r="C30" t="n">
-        <v>78.75933333333334</v>
+        <v>911.5224876588338</v>
       </c>
       <c r="D30" t="n">
-        <v>1.048434471258433</v>
+        <v>0.602120481519149</v>
       </c>
       <c r="E30" t="n">
-        <v>2.149623222799754</v>
+        <v>62.22704648135079</v>
       </c>
       <c r="F30" t="n">
-        <v>2.891533124403698</v>
+        <v>45.4703193669679</v>
       </c>
       <c r="G30" t="n">
-        <v>80.52</v>
+        <v>833.1176315789475</v>
       </c>
       <c r="H30" t="n">
-        <v>74.22</v>
+        <v>855.3005882352942</v>
       </c>
       <c r="I30" t="n">
-        <v>86.14</v>
+        <v>987.9930555555555</v>
       </c>
       <c r="J30" t="n">
-        <v>83.59</v>
+        <v>990.0083783783783</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>count_high_pressures_received_in_sample</t>
+          <t>count_completed_dangerous_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4164</v>
+        <v>0.9660021265284424</v>
       </c>
       <c r="C31" t="n">
-        <v>3989.733333333333</v>
+        <v>0.8409129682194699</v>
       </c>
       <c r="D31" t="n">
-        <v>1.043678775523845</v>
+        <v>0.5743128137845337</v>
       </c>
       <c r="E31" t="n">
-        <v>366.0307364143072</v>
+        <v>0.3655283249896064</v>
       </c>
       <c r="F31" t="n">
-        <v>620.1707675732393</v>
+        <v>0.1683327200526206</v>
       </c>
       <c r="G31" t="n">
-        <v>3791</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="H31" t="n">
-        <v>2583</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="I31" t="n">
-        <v>4709</v>
+        <v>1.5</v>
       </c>
       <c r="J31" t="n">
-        <v>4749</v>
+        <v>1.210526315789474</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_high_pressure_per_match</t>
+          <t>ball_retention_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.522</v>
+        <v>931.7217259436471</v>
       </c>
       <c r="C32" t="n">
-        <v>6.258</v>
+        <v>913.7543772450674</v>
       </c>
       <c r="D32" t="n">
-        <v>1.042186001917546</v>
+        <v>0.546582916979982</v>
       </c>
       <c r="E32" t="n">
-        <v>0.884092755314735</v>
+        <v>65.71851524998368</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4865505406136432</v>
+        <v>37.00748049513097</v>
       </c>
       <c r="G32" t="n">
-        <v>5.57</v>
+        <v>831.9386842105263</v>
       </c>
       <c r="H32" t="n">
-        <v>5.41</v>
+        <v>850.9688235294117</v>
       </c>
       <c r="I32" t="n">
-        <v>7.56</v>
+        <v>997.2430303030302</v>
       </c>
       <c r="J32" t="n">
-        <v>7.03</v>
+        <v>992.3162162162162</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_low_pressure_per_match</t>
+          <t>ball_retention_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.288</v>
+        <v>906.785288144604</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2766666666666666</v>
+        <v>892.7463899028037</v>
       </c>
       <c r="D33" t="n">
-        <v>1.040963855421687</v>
+        <v>0.5398932888664617</v>
       </c>
       <c r="E33" t="n">
-        <v>0.04381780460041328</v>
+        <v>48.97851217106587</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02410295378065478</v>
+        <v>41.38362507318402</v>
       </c>
       <c r="G33" t="n">
-        <v>0.26</v>
+        <v>827.5055263157894</v>
       </c>
       <c r="H33" t="n">
-        <v>0.22</v>
+        <v>832.6507692307691</v>
       </c>
       <c r="I33" t="n">
-        <v>0.36</v>
+        <v>947.2791666666667</v>
       </c>
       <c r="J33" t="n">
-        <v>0.31</v>
+        <v>963.2623684210527</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_high_pressure</t>
+          <t>count_forced_losses_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48.86</v>
+        <v>19.9613769271664</v>
       </c>
       <c r="C34" t="n">
-        <v>47.17933333333335</v>
+        <v>19.54650889143149</v>
       </c>
       <c r="D34" t="n">
-        <v>1.035622942248724</v>
+        <v>0.5293598363976655</v>
       </c>
       <c r="E34" t="n">
-        <v>1.531420908829443</v>
+        <v>0.8544217449624706</v>
       </c>
       <c r="F34" t="n">
-        <v>3.103199884604523</v>
+        <v>1.334125031862013</v>
       </c>
       <c r="G34" t="n">
-        <v>47.38</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>42.78</v>
+        <v>16.57692307692308</v>
       </c>
       <c r="I34" t="n">
-        <v>50.72</v>
+        <v>20.73684210526316</v>
       </c>
       <c r="J34" t="n">
-        <v>53.52</v>
+        <v>21.13888888888889</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_medium_pressure_per_match</t>
+          <t>pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.528</v>
+        <v>926.9221650717702</v>
       </c>
       <c r="C35" t="n">
-        <v>1.478666666666666</v>
+        <v>912.096022382739</v>
       </c>
       <c r="D35" t="n">
-        <v>1.03336339044184</v>
+        <v>0.4986740878022135</v>
       </c>
       <c r="E35" t="n">
-        <v>0.117983049630021</v>
+        <v>80.20739629900858</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08609518541928439</v>
+        <v>44.59755262104306</v>
       </c>
       <c r="G35" t="n">
-        <v>1.38</v>
+        <v>802.9268421052632</v>
       </c>
       <c r="H35" t="n">
-        <v>1.29</v>
+        <v>842.9864705882353</v>
       </c>
       <c r="I35" t="n">
-        <v>1.66</v>
+        <v>1004.427272727273</v>
       </c>
       <c r="J35" t="n">
-        <v>1.62</v>
+        <v>1009.166756756757</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_high_pressure</t>
+          <t>count_ball_retentions_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>78.39399999999999</v>
+        <v>85.19790005316321</v>
       </c>
       <c r="C36" t="n">
-        <v>76.06066666666666</v>
+        <v>82.78512188318692</v>
       </c>
       <c r="D36" t="n">
-        <v>1.030677266392616</v>
+        <v>0.4864840959230409</v>
       </c>
       <c r="E36" t="n">
-        <v>2.28631362678002</v>
+        <v>11.06095979919953</v>
       </c>
       <c r="F36" t="n">
-        <v>2.797362192869425</v>
+        <v>7.332063860610322</v>
       </c>
       <c r="G36" t="n">
-        <v>75.17</v>
+        <v>70.10526315789474</v>
       </c>
       <c r="H36" t="n">
-        <v>70.65000000000001</v>
+        <v>70.5</v>
       </c>
       <c r="I36" t="n">
-        <v>80.65000000000001</v>
+        <v>96.90909090909091</v>
       </c>
       <c r="J36" t="n">
-        <v>80.42</v>
+        <v>94.47368421052632</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_high_pressure</t>
+          <t>count_difficult_pass_attempts_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>73.708</v>
+        <v>2.995029239766082</v>
       </c>
       <c r="C37" t="n">
-        <v>71.66333333333334</v>
+        <v>2.858355451358547</v>
       </c>
       <c r="D37" t="n">
-        <v>1.028531559607423</v>
+        <v>0.4841069743676216</v>
       </c>
       <c r="E37" t="n">
-        <v>2.254987804845074</v>
+        <v>0.7126136523890197</v>
       </c>
       <c r="F37" t="n">
-        <v>2.234811167052141</v>
+        <v>0.2603554424079442</v>
       </c>
       <c r="G37" t="n">
-        <v>70.27</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>66.72</v>
+        <v>2.485714285714286</v>
       </c>
       <c r="I37" t="n">
-        <v>76.22</v>
+        <v>3.973684210526316</v>
       </c>
       <c r="J37" t="n">
-        <v>75.59</v>
+        <v>3.324324324324324</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_medium_pressure</t>
+          <t>count_difficult_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>78.64400000000001</v>
+        <v>17.8339447102605</v>
       </c>
       <c r="C38" t="n">
-        <v>76.47733333333333</v>
+        <v>17.20220254275982</v>
       </c>
       <c r="D38" t="n">
-        <v>1.028330834408452</v>
+        <v>0.4815416741613645</v>
       </c>
       <c r="E38" t="n">
-        <v>2.811846368491705</v>
+        <v>1.355211729841018</v>
       </c>
       <c r="F38" t="n">
-        <v>2.363171194653087</v>
+        <v>1.930595326425713</v>
       </c>
       <c r="G38" t="n">
-        <v>73.68000000000001</v>
+        <v>15.47222222222222</v>
       </c>
       <c r="H38" t="n">
-        <v>71.59999999999999</v>
+        <v>13.76923076923077</v>
       </c>
       <c r="I38" t="n">
-        <v>80.31</v>
+        <v>18.87878787878788</v>
       </c>
       <c r="J38" t="n">
-        <v>79.86</v>
+        <v>20.81081081081081</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_medium_pressure</t>
+          <t>count_forced_losses_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>80.876</v>
+        <v>3.747448165869218</v>
       </c>
       <c r="C39" t="n">
-        <v>78.896</v>
+        <v>3.66430324482956</v>
       </c>
       <c r="D39" t="n">
-        <v>1.02509632934496</v>
+        <v>0.3958260195494235</v>
       </c>
       <c r="E39" t="n">
-        <v>3.010295666541743</v>
+        <v>0.4881758570191252</v>
       </c>
       <c r="F39" t="n">
-        <v>2.721091692685124</v>
+        <v>0.3563029263546533</v>
       </c>
       <c r="G39" t="n">
-        <v>75.62</v>
+        <v>3.210526315789474</v>
       </c>
       <c r="H39" t="n">
-        <v>72.67</v>
+        <v>2.942857142857143</v>
       </c>
       <c r="I39" t="n">
-        <v>82.78</v>
+        <v>4.473684210526316</v>
       </c>
       <c r="J39" t="n">
-        <v>82.81999999999999</v>
+        <v>4.210526315789473</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_medium_pressure</t>
+          <t>count_dangerous_pass_attempts_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>48.378</v>
+        <v>1.676049973418394</v>
       </c>
       <c r="C40" t="n">
-        <v>49.288</v>
+        <v>1.574894686814192</v>
       </c>
       <c r="D40" t="n">
-        <v>1.018810202984828</v>
+        <v>0.3897342107221455</v>
       </c>
       <c r="E40" t="n">
-        <v>1.718711726846591</v>
+        <v>0.6039703571442413</v>
       </c>
       <c r="F40" t="n">
-        <v>2.636822221647002</v>
+        <v>0.2383404436652539</v>
       </c>
       <c r="G40" t="n">
-        <v>46.45</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="H40" t="n">
-        <v>45.82</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>50.26</v>
+        <v>2.526315789473684</v>
       </c>
       <c r="J40" t="n">
-        <v>55.58</v>
+        <v>1.921052631578947</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_medium_pressure</t>
+          <t>count_high_pressures_received_in_sample</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>49.994</v>
+        <v>115.3307814992025</v>
       </c>
       <c r="C41" t="n">
-        <v>49.38</v>
+        <v>115.4374163797384</v>
       </c>
       <c r="D41" t="n">
-        <v>1.012434183880113</v>
+        <v>0.3172587690820541</v>
       </c>
       <c r="E41" t="n">
-        <v>1.539457696723102</v>
+        <v>11.91540436132745</v>
       </c>
       <c r="F41" t="n">
-        <v>4.906913490168742</v>
+        <v>8.357518432843063</v>
       </c>
       <c r="G41" t="n">
-        <v>47.35</v>
+        <v>99.76315789473684</v>
       </c>
       <c r="H41" t="n">
-        <v>42.03</v>
+        <v>99.34615384615384</v>
       </c>
       <c r="I41" t="n">
-        <v>51.4</v>
+        <v>128.969696969697</v>
       </c>
       <c r="J41" t="n">
-        <v>60.65</v>
+        <v>125.5405405405405</v>
       </c>
     </row>
     <row r="42">
@@ -1847,31 +1848,65 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8.826000000000001</v>
+        <v>115.3307814992025</v>
       </c>
       <c r="C42" t="n">
-        <v>8.726666666666665</v>
+        <v>115.4374163797384</v>
       </c>
       <c r="D42" t="n">
-        <v>1.011382734912147</v>
+        <v>0.3172587690820541</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9563629018317265</v>
+        <v>11.91540436132745</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5273202695389839</v>
+        <v>8.357518432843063</v>
       </c>
       <c r="G42" t="n">
-        <v>7.93</v>
+        <v>99.76315789473684</v>
       </c>
       <c r="H42" t="n">
-        <v>7.66</v>
+        <v>99.34615384615384</v>
       </c>
       <c r="I42" t="n">
-        <v>9.91</v>
+        <v>128.969696969697</v>
       </c>
       <c r="J42" t="n">
-        <v>9.33</v>
+        <v>125.5405405405405</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>count_forced_losses_under_high_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>30.13288144603934</v>
+      </c>
+      <c r="C43" t="n">
+        <v>32.65229449655147</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.2584663644320479</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.455367561493193</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2.876988277744153</v>
+      </c>
+      <c r="G43" t="n">
+        <v>28.36111111111111</v>
+      </c>
+      <c r="H43" t="n">
+        <v>26.65384615384615</v>
+      </c>
+      <c r="I43" t="n">
+        <v>32.06060606060606</v>
+      </c>
+      <c r="J43" t="n">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_pressure.xlsx
+++ b/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_pressure.xlsx
@@ -1514,16 +1514,16 @@
         <v>913.7543772450674</v>
       </c>
       <c r="D32" t="n">
-        <v>0.546582916979982</v>
+        <v>0.5465829169799821</v>
       </c>
       <c r="E32" t="n">
-        <v>65.71851524998368</v>
+        <v>65.71851524998364</v>
       </c>
       <c r="F32" t="n">
         <v>37.00748049513097</v>
       </c>
       <c r="G32" t="n">
-        <v>831.9386842105263</v>
+        <v>831.9386842105264</v>
       </c>
       <c r="H32" t="n">
         <v>850.9688235294117</v>

--- a/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_pressure.xlsx
+++ b/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_pressure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,8 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Diff Moyennes
-(données normalisées)</t>
+          <t>Diff. Top 5 avec Bottom 15 en %</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -494,7 +493,7 @@
         <v>10.23598045652225</v>
       </c>
       <c r="D2" t="n">
-        <v>1.499907916316916</v>
+        <v>40.24</v>
       </c>
       <c r="E2" t="n">
         <v>3.910715681157689</v>
@@ -528,7 +527,7 @@
         <v>12.97051329405819</v>
       </c>
       <c r="D3" t="n">
-        <v>1.429458588304161</v>
+        <v>33.43</v>
       </c>
       <c r="E3" t="n">
         <v>4.310687550778566</v>
@@ -562,7 +561,7 @@
         <v>12.27095076909318</v>
       </c>
       <c r="D4" t="n">
-        <v>1.419545633764868</v>
+        <v>31.93</v>
       </c>
       <c r="E4" t="n">
         <v>4.079987661803182</v>
@@ -586,75 +585,75 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_medium_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.514460393407761</v>
+        <v>3.259197235513025</v>
       </c>
       <c r="C5" t="n">
-        <v>5.102178582147622</v>
+        <v>2.54192310791382</v>
       </c>
       <c r="D5" t="n">
-        <v>1.373775905796136</v>
+        <v>28.22</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6189200661921367</v>
+        <v>0.3509515733190581</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8714620622082803</v>
+        <v>0.6135750097390572</v>
       </c>
       <c r="G5" t="n">
-        <v>5.944444444444445</v>
+        <v>2.815789473684211</v>
       </c>
       <c r="H5" t="n">
-        <v>3.538461538461538</v>
+        <v>1.653846153846154</v>
       </c>
       <c r="I5" t="n">
-        <v>7.393939393939394</v>
+        <v>3.727272727272727</v>
       </c>
       <c r="J5" t="n">
-        <v>6.394736842105263</v>
+        <v>3.54054054054054</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>count_low_pressures_received_per_match</t>
+          <t>count_dangerous_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.93612440191388</v>
+        <v>6.514460393407761</v>
       </c>
       <c r="C6" t="n">
-        <v>15.93525401392274</v>
+        <v>5.102178582147622</v>
       </c>
       <c r="D6" t="n">
-        <v>1.323045013841438</v>
+        <v>27.68</v>
       </c>
       <c r="E6" t="n">
-        <v>4.500737977474723</v>
+        <v>0.6189200661921367</v>
       </c>
       <c r="F6" t="n">
-        <v>1.674957580654662</v>
+        <v>0.8714620622082803</v>
       </c>
       <c r="G6" t="n">
-        <v>14.36842105263158</v>
+        <v>5.944444444444445</v>
       </c>
       <c r="H6" t="n">
-        <v>13.32352941176471</v>
+        <v>3.538461538461538</v>
       </c>
       <c r="I6" t="n">
-        <v>25.27272727272727</v>
+        <v>7.393939393939394</v>
       </c>
       <c r="J6" t="n">
-        <v>19.54054054054054</v>
+        <v>6.394736842105263</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>count_low_pressures_received_in_sample</t>
+          <t>count_low_pressures_received_per_match</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -664,7 +663,7 @@
         <v>15.93525401392274</v>
       </c>
       <c r="D7" t="n">
-        <v>1.323045013841438</v>
+        <v>25.11</v>
       </c>
       <c r="E7" t="n">
         <v>4.500737977474723</v>
@@ -692,201 +691,201 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>234.071346092504</v>
+        <v>17.83067104808772</v>
       </c>
       <c r="C8" t="n">
-        <v>188.7042159215113</v>
+        <v>14.26262018607034</v>
       </c>
       <c r="D8" t="n">
-        <v>1.259977205069185</v>
+        <v>25.02</v>
       </c>
       <c r="E8" t="n">
-        <v>19.70194961527498</v>
+        <v>1.629324527950878</v>
       </c>
       <c r="F8" t="n">
-        <v>36.2969714242969</v>
+        <v>2.57659947104232</v>
       </c>
       <c r="G8" t="n">
-        <v>216.0086842105263</v>
+        <v>15.8168458994709</v>
       </c>
       <c r="H8" t="n">
-        <v>129.1665384615385</v>
+        <v>10.38063583852045</v>
       </c>
       <c r="I8" t="n">
-        <v>264.1918181818182</v>
+        <v>19.94717571317571</v>
       </c>
       <c r="J8" t="n">
-        <v>246.9302631578948</v>
+        <v>17.92355784493285</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_medium_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65.06722488038278</v>
+        <v>4.706884635832004</v>
       </c>
       <c r="C9" t="n">
-        <v>53.60573227737314</v>
+        <v>3.782242670323166</v>
       </c>
       <c r="D9" t="n">
-        <v>1.217719387341571</v>
+        <v>24.45</v>
       </c>
       <c r="E9" t="n">
-        <v>10.72266491984835</v>
+        <v>0.8637063819340555</v>
       </c>
       <c r="F9" t="n">
-        <v>7.08913271481011</v>
+        <v>0.6225732970453021</v>
       </c>
       <c r="G9" t="n">
-        <v>47.18421052631579</v>
+        <v>3.684210526315789</v>
       </c>
       <c r="H9" t="n">
-        <v>42.61764705882353</v>
+        <v>3.028571428571428</v>
       </c>
       <c r="I9" t="n">
-        <v>74.45454545454545</v>
+        <v>5.605263157894737</v>
       </c>
       <c r="J9" t="n">
-        <v>66.45945945945945</v>
+        <v>4.921052631578948</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_medium_pressure_per_match</t>
+          <t>count_completed_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>80.17142477405636</v>
+        <v>65.06722488038278</v>
       </c>
       <c r="C10" t="n">
-        <v>67.76975249055744</v>
+        <v>53.60573227737314</v>
       </c>
       <c r="D10" t="n">
-        <v>1.217306434607227</v>
+        <v>21.38</v>
       </c>
       <c r="E10" t="n">
-        <v>11.02981363550378</v>
+        <v>10.72266491984835</v>
       </c>
       <c r="F10" t="n">
-        <v>6.986410100674887</v>
+        <v>7.08913271481011</v>
       </c>
       <c r="G10" t="n">
-        <v>62.39473684210526</v>
+        <v>47.18421052631579</v>
       </c>
       <c r="H10" t="n">
-        <v>58.64705882352941</v>
+        <v>42.61764705882353</v>
       </c>
       <c r="I10" t="n">
-        <v>89.96969696969697</v>
+        <v>74.45454545454545</v>
       </c>
       <c r="J10" t="n">
-        <v>80.24324324324324</v>
+        <v>66.45945945945945</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_low_pressure</t>
+          <t>dangerous_pass_completion_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>632.6905536948432</v>
+        <v>22.71375406688828</v>
       </c>
       <c r="C11" t="n">
-        <v>553.1230995817442</v>
+        <v>18.72011123602663</v>
       </c>
       <c r="D11" t="n">
-        <v>1.210793363323476</v>
+        <v>21.33</v>
       </c>
       <c r="E11" t="n">
-        <v>72.99869237459815</v>
+        <v>3.485144195820843</v>
       </c>
       <c r="F11" t="n">
-        <v>44.38891234361983</v>
+        <v>2.56584181321848</v>
       </c>
       <c r="G11" t="n">
-        <v>523.6849999999999</v>
+        <v>18.31218471343471</v>
       </c>
       <c r="H11" t="n">
-        <v>493.0574285714285</v>
+        <v>15.59855391455391</v>
       </c>
       <c r="I11" t="n">
-        <v>726.5618181818182</v>
+        <v>26.41538661338661</v>
       </c>
       <c r="J11" t="n">
-        <v>634.8437837837838</v>
+        <v>23.8450999789684</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_medium_pressure_per_match</t>
+          <t>dangerous_pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.259197235513025</v>
+        <v>6.615509410932856</v>
       </c>
       <c r="C12" t="n">
-        <v>2.54192310791382</v>
+        <v>5.564669099985386</v>
       </c>
       <c r="D12" t="n">
-        <v>1.210022508452321</v>
+        <v>18.88</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3509515733190581</v>
+        <v>2.360831154230891</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6135750097390572</v>
+        <v>1.004210295002102</v>
       </c>
       <c r="G12" t="n">
-        <v>2.815789473684211</v>
+        <v>4.298941798941799</v>
       </c>
       <c r="H12" t="n">
-        <v>1.653846153846154</v>
+        <v>3.986590332744179</v>
       </c>
       <c r="I12" t="n">
-        <v>3.727272727272727</v>
+        <v>10.20832237937501</v>
       </c>
       <c r="J12" t="n">
-        <v>3.54054054054054</v>
+        <v>7.319627433969539</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_high_pressure_per_match</t>
+          <t>count_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.706884635832004</v>
+        <v>80.17142477405636</v>
       </c>
       <c r="C13" t="n">
-        <v>3.782242670323166</v>
+        <v>67.76975249055744</v>
       </c>
       <c r="D13" t="n">
-        <v>1.15512670907514</v>
+        <v>18.3</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8637063819340555</v>
+        <v>11.02981363550378</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6225732970453021</v>
+        <v>6.986410100674887</v>
       </c>
       <c r="G13" t="n">
-        <v>3.684210526315789</v>
+        <v>62.39473684210526</v>
       </c>
       <c r="H13" t="n">
-        <v>3.028571428571428</v>
+        <v>58.64705882352941</v>
       </c>
       <c r="I13" t="n">
-        <v>5.605263157894737</v>
+        <v>89.96969696969697</v>
       </c>
       <c r="J13" t="n">
-        <v>4.921052631578948</v>
+        <v>80.24324324324324</v>
       </c>
     </row>
     <row r="14">
@@ -899,10 +898,10 @@
         <v>74.51028708133973</v>
       </c>
       <c r="C14" t="n">
-        <v>64.0611401981371</v>
+        <v>64.06114019813711</v>
       </c>
       <c r="D14" t="n">
-        <v>1.129220442170555</v>
+        <v>16.31</v>
       </c>
       <c r="E14" t="n">
         <v>10.39803168261347</v>
@@ -926,987 +925,885 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_high_pressure</t>
+          <t>pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>296.5627729930887</v>
+        <v>48.38604790172909</v>
       </c>
       <c r="C15" t="n">
-        <v>248.9776585240873</v>
+        <v>41.75922416937606</v>
       </c>
       <c r="D15" t="n">
-        <v>1.100926466709257</v>
+        <v>15.87</v>
       </c>
       <c r="E15" t="n">
-        <v>44.40476139713928</v>
+        <v>5.222599764919785</v>
       </c>
       <c r="F15" t="n">
-        <v>34.68165182836825</v>
+        <v>2.94473477547522</v>
       </c>
       <c r="G15" t="n">
-        <v>246.7133333333333</v>
+        <v>41.59817451408241</v>
       </c>
       <c r="H15" t="n">
-        <v>200.9615384615385</v>
+        <v>37.45310160950161</v>
       </c>
       <c r="I15" t="n">
-        <v>348.8384848484848</v>
+        <v>54.81955808837628</v>
       </c>
       <c r="J15" t="n">
-        <v>311.5234285714286</v>
+        <v>46.74466767916768</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>count_medium_pressures_received_per_match</t>
+          <t>count_completed_dangerous_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>94.47166400850611</v>
+        <v>0.9660021265284424</v>
       </c>
       <c r="C16" t="n">
-        <v>83.6076490895686</v>
+        <v>0.8409129682194699</v>
       </c>
       <c r="D16" t="n">
-        <v>1.088693924717797</v>
+        <v>14.88</v>
       </c>
       <c r="E16" t="n">
-        <v>10.43232543935741</v>
+        <v>0.3655283249896064</v>
       </c>
       <c r="F16" t="n">
-        <v>7.468957464025388</v>
+        <v>0.1683327200526206</v>
       </c>
       <c r="G16" t="n">
-        <v>77.57894736842105</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="H16" t="n">
-        <v>71.51428571428572</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="I16" t="n">
-        <v>103.8787878787879</v>
+        <v>1.5</v>
       </c>
       <c r="J16" t="n">
-        <v>96.45945945945945</v>
+        <v>1.210526315789474</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>count_medium_pressures_received_in_sample</t>
+          <t>count_difficult_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>94.47166400850611</v>
+        <v>16.74178628389155</v>
       </c>
       <c r="C17" t="n">
-        <v>83.6076490895686</v>
+        <v>14.73786154337238</v>
       </c>
       <c r="D17" t="n">
-        <v>1.088693924717797</v>
+        <v>13.6</v>
       </c>
       <c r="E17" t="n">
-        <v>10.43232543935741</v>
+        <v>0.8579917712224376</v>
       </c>
       <c r="F17" t="n">
-        <v>7.468957464025388</v>
+        <v>1.60742309185437</v>
       </c>
       <c r="G17" t="n">
-        <v>77.57894736842105</v>
+        <v>15.80555555555556</v>
       </c>
       <c r="H17" t="n">
-        <v>71.51428571428572</v>
+        <v>11.73529411764706</v>
       </c>
       <c r="I17" t="n">
-        <v>103.8787878787879</v>
+        <v>17.76315789473684</v>
       </c>
       <c r="J17" t="n">
-        <v>96.45945945945945</v>
+        <v>17.48648648648649</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_medium_pressure_per_match</t>
+          <t>count_completed_difficult_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16.74178628389155</v>
+        <v>1.580595427963849</v>
       </c>
       <c r="C18" t="n">
-        <v>14.73786154337238</v>
+        <v>1.39769684885784</v>
       </c>
       <c r="D18" t="n">
-        <v>1.066759153093368</v>
+        <v>13.09</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8579917712224376</v>
+        <v>0.423324832869216</v>
       </c>
       <c r="F18" t="n">
-        <v>1.60742309185437</v>
+        <v>0.1731801919244795</v>
       </c>
       <c r="G18" t="n">
-        <v>15.80555555555556</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="H18" t="n">
-        <v>11.73529411764706</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="I18" t="n">
-        <v>17.76315789473684</v>
+        <v>2.052631578947369</v>
       </c>
       <c r="J18" t="n">
-        <v>17.48648648648649</v>
+        <v>1.736842105263158</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_low_pressure</t>
+          <t>count_medium_pressures_received_per_match</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>665.2065611376927</v>
+        <v>94.47166400850611</v>
       </c>
       <c r="C19" t="n">
-        <v>605.3557343082833</v>
+        <v>83.6076490895686</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9876474354598193</v>
+        <v>12.99</v>
       </c>
       <c r="E19" t="n">
-        <v>67.67820449302742</v>
+        <v>10.43232543935741</v>
       </c>
       <c r="F19" t="n">
-        <v>45.84591013650245</v>
+        <v>7.468957464025388</v>
       </c>
       <c r="G19" t="n">
-        <v>552.8044736842105</v>
+        <v>77.57894736842105</v>
       </c>
       <c r="H19" t="n">
-        <v>545.6138235294118</v>
+        <v>71.51428571428572</v>
       </c>
       <c r="I19" t="n">
-        <v>732.4612121212122</v>
+        <v>103.8787878787879</v>
       </c>
       <c r="J19" t="n">
-        <v>682.4497142857143</v>
+        <v>96.45945945945945</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_medium_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.093646996278576</v>
+        <v>8.370760233918128</v>
       </c>
       <c r="C20" t="n">
-        <v>7.264436153739561</v>
+        <v>7.408823116315375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9565608470889262</v>
+        <v>12.98</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3807044093820632</v>
+        <v>1.241928128992514</v>
       </c>
       <c r="F20" t="n">
-        <v>0.874732323456504</v>
+        <v>1.104134934333449</v>
       </c>
       <c r="G20" t="n">
-        <v>7.736842105263158</v>
+        <v>6.842105263157895</v>
       </c>
       <c r="H20" t="n">
-        <v>5.617647058823529</v>
+        <v>5.576923076923077</v>
       </c>
       <c r="I20" t="n">
-        <v>8.636363636363637</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="J20" t="n">
-        <v>8.342105263157896</v>
+        <v>9.157894736842104</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_high_pressure_per_match</t>
+          <t>difficult_pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>62.68423710792132</v>
+        <v>9.82926728522231</v>
       </c>
       <c r="C21" t="n">
-        <v>55.91052908333094</v>
+        <v>8.756925541401015</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9197483123533007</v>
+        <v>12.25</v>
       </c>
       <c r="E21" t="n">
-        <v>9.996482215315146</v>
+        <v>2.687658155200067</v>
       </c>
       <c r="F21" t="n">
-        <v>5.839150504302594</v>
+        <v>1.195615870601618</v>
       </c>
       <c r="G21" t="n">
-        <v>50.42105263157895</v>
+        <v>5.585917175417176</v>
       </c>
       <c r="H21" t="n">
-        <v>46.47058823529412</v>
+        <v>6.954798281964949</v>
       </c>
       <c r="I21" t="n">
-        <v>72.87878787878788</v>
+        <v>12.51111778572305</v>
       </c>
       <c r="J21" t="n">
-        <v>66.23684210526316</v>
+        <v>10.54791893194525</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_high_pressure_per_match</t>
+          <t>count_completed_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.370760233918128</v>
+        <v>62.68423710792132</v>
       </c>
       <c r="C22" t="n">
-        <v>7.408823116315375</v>
+        <v>55.91052908333094</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8617966879069188</v>
+        <v>12.12</v>
       </c>
       <c r="E22" t="n">
-        <v>1.241928128992514</v>
+        <v>9.996482215315146</v>
       </c>
       <c r="F22" t="n">
-        <v>1.104134934333449</v>
+        <v>5.839150504302594</v>
       </c>
       <c r="G22" t="n">
-        <v>6.842105263157895</v>
+        <v>50.42105263157895</v>
       </c>
       <c r="H22" t="n">
-        <v>5.576923076923077</v>
+        <v>46.47058823529412</v>
       </c>
       <c r="I22" t="n">
-        <v>9.333333333333334</v>
+        <v>72.87878787878788</v>
       </c>
       <c r="J22" t="n">
-        <v>9.157894736842104</v>
+        <v>66.23684210526316</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_high_pressure_per_match</t>
+          <t>count_completed_difficult_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>79.73354598617757</v>
+        <v>8.093646996278576</v>
       </c>
       <c r="C23" t="n">
-        <v>73.41671268247119</v>
+        <v>7.264436153739558</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8160816473695697</v>
+        <v>11.41</v>
       </c>
       <c r="E23" t="n">
-        <v>10.57311949807776</v>
+        <v>0.3807044093820632</v>
       </c>
       <c r="F23" t="n">
-        <v>5.994052480426662</v>
+        <v>0.874732323456504</v>
       </c>
       <c r="G23" t="n">
-        <v>67.07894736842105</v>
+        <v>7.736842105263158</v>
       </c>
       <c r="H23" t="n">
-        <v>61.30769230769231</v>
+        <v>5.617647058823529</v>
       </c>
       <c r="I23" t="n">
-        <v>90.44736842105263</v>
+        <v>8.636363636363637</v>
       </c>
       <c r="J23" t="n">
-        <v>82.36842105263158</v>
+        <v>8.342105263157896</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_low_pressure_per_match</t>
+          <t>ball_retention_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.580595427963849</v>
+        <v>50.95108855256181</v>
       </c>
       <c r="C24" t="n">
-        <v>1.39769684885784</v>
+        <v>45.76545289614659</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8089517837759733</v>
+        <v>11.33</v>
       </c>
       <c r="E24" t="n">
-        <v>0.423324832869216</v>
+        <v>4.782831323105285</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1731801919244795</v>
+        <v>3.086334154873672</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9444444444444444</v>
+        <v>43.86007511348301</v>
       </c>
       <c r="H24" t="n">
-        <v>1.166666666666667</v>
+        <v>41.30532491382491</v>
       </c>
       <c r="I24" t="n">
-        <v>2.052631578947369</v>
+        <v>55.3640909090909</v>
       </c>
       <c r="J24" t="n">
-        <v>1.736842105263158</v>
+        <v>50.58772012273441</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
+          <t>count_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.720414673046253</v>
+        <v>79.73354598617757</v>
       </c>
       <c r="C25" t="n">
-        <v>8.100326025171226</v>
+        <v>73.41671268247119</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6987571451882745</v>
+        <v>8.6</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8088271180153909</v>
+        <v>10.57311949807776</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9391695884526888</v>
+        <v>5.994052480426662</v>
       </c>
       <c r="G25" t="n">
-        <v>7.444444444444445</v>
+        <v>67.07894736842105</v>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>61.30769230769231</v>
       </c>
       <c r="I25" t="n">
-        <v>9.575757575757576</v>
+        <v>90.44736842105263</v>
       </c>
       <c r="J25" t="n">
-        <v>10.21052631578947</v>
+        <v>82.36842105263158</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_low_pressure</t>
+          <t>count_forced_losses_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>128.3271855396066</v>
+        <v>30.13288144603934</v>
       </c>
       <c r="C26" t="n">
-        <v>116.2336224131644</v>
+        <v>32.65229449655147</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6907248532933907</v>
+        <v>-7.72</v>
       </c>
       <c r="E26" t="n">
-        <v>34.1772380569216</v>
+        <v>1.455367561493193</v>
       </c>
       <c r="F26" t="n">
-        <v>16.66941472231824</v>
+        <v>2.876988277744153</v>
       </c>
       <c r="G26" t="n">
-        <v>75.46305555555556</v>
+        <v>28.36111111111111</v>
       </c>
       <c r="H26" t="n">
-        <v>90.50916666666666</v>
+        <v>26.65384615384615</v>
       </c>
       <c r="I26" t="n">
-        <v>157.2368421052632</v>
+        <v>32.06060606060606</v>
       </c>
       <c r="J26" t="n">
-        <v>141.6665789473684</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_low_pressure</t>
+          <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>87.05914965443914</v>
+        <v>8.720414673046253</v>
       </c>
       <c r="C27" t="n">
-        <v>74.25870336899344</v>
+        <v>8.100326025171228</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6736923207536415</v>
+        <v>7.66</v>
       </c>
       <c r="E27" t="n">
-        <v>30.21604906558762</v>
+        <v>0.8088271180153909</v>
       </c>
       <c r="F27" t="n">
-        <v>13.97380794585594</v>
+        <v>0.9391695884526888</v>
       </c>
       <c r="G27" t="n">
-        <v>57.89473684210526</v>
+        <v>7.444444444444445</v>
       </c>
       <c r="H27" t="n">
-        <v>51.92307692307692</v>
+        <v>7</v>
       </c>
       <c r="I27" t="n">
-        <v>130.2631578947368</v>
+        <v>9.575757575757576</v>
       </c>
       <c r="J27" t="n">
-        <v>100.4386842105263</v>
+        <v>10.21052631578947</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_high_pressure</t>
+          <t>count_dangerous_pass_attempts_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>413.3022698032961</v>
+        <v>1.676049973418394</v>
       </c>
       <c r="C28" t="n">
-        <v>399.6970492807781</v>
+        <v>1.574894686814192</v>
       </c>
       <c r="D28" t="n">
-        <v>0.644191487227341</v>
+        <v>6.42</v>
       </c>
       <c r="E28" t="n">
-        <v>14.14471085426811</v>
+        <v>0.6039703571442413</v>
       </c>
       <c r="F28" t="n">
-        <v>31.55145524907426</v>
+        <v>0.2383404436652539</v>
       </c>
       <c r="G28" t="n">
-        <v>395.7557894736842</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="H28" t="n">
-        <v>350.1386111111111</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>430.8730303030303</v>
+        <v>2.526315789473684</v>
       </c>
       <c r="J28" t="n">
-        <v>483.9828947368421</v>
+        <v>1.921052631578947</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_medium_pressure</t>
+          <t>count_difficult_pass_attempts_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>398.1926871345029</v>
+        <v>2.995029239766082</v>
       </c>
       <c r="C29" t="n">
-        <v>386.5626780942393</v>
+        <v>2.858355451358547</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6321145695752708</v>
+        <v>4.78</v>
       </c>
       <c r="E29" t="n">
-        <v>15.41752660574997</v>
+        <v>0.7126136523890197</v>
       </c>
       <c r="F29" t="n">
-        <v>30.76927003940471</v>
+        <v>0.2603554424079442</v>
       </c>
       <c r="G29" t="n">
-        <v>382.7755263157895</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>314.4367647058824</v>
+        <v>2.485714285714286</v>
       </c>
       <c r="I29" t="n">
-        <v>420.655</v>
+        <v>3.973684210526316</v>
       </c>
       <c r="J29" t="n">
-        <v>440.57</v>
+        <v>3.324324324324324</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_high_pressure</t>
+          <t>difficult_pass_completion_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>932.6061998936735</v>
+        <v>31.70851057400719</v>
       </c>
       <c r="C30" t="n">
-        <v>911.5224876588338</v>
+        <v>30.26605501943151</v>
       </c>
       <c r="D30" t="n">
-        <v>0.602120481519149</v>
+        <v>4.77</v>
       </c>
       <c r="E30" t="n">
-        <v>62.22704648135079</v>
+        <v>0.8495983207342045</v>
       </c>
       <c r="F30" t="n">
-        <v>45.4703193669679</v>
+        <v>2.338308255700444</v>
       </c>
       <c r="G30" t="n">
-        <v>833.1176315789475</v>
+        <v>30.51103964708132</v>
       </c>
       <c r="H30" t="n">
-        <v>855.3005882352942</v>
+        <v>25.93525097125097</v>
       </c>
       <c r="I30" t="n">
-        <v>987.9930555555555</v>
+        <v>32.72941990837445</v>
       </c>
       <c r="J30" t="n">
-        <v>990.0083783783783</v>
+        <v>36.24011710767303</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_low_pressure_per_match</t>
+          <t>difficult_pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9660021265284424</v>
+        <v>30.62459094826404</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8409129682194699</v>
+        <v>29.36797604428218</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5743128137845337</v>
+        <v>4.28</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3655283249896064</v>
+        <v>1.055255525370763</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1683327200526206</v>
+        <v>2.156801425649684</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6052631578947368</v>
+        <v>28.82262012062012</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5769230769230769</v>
+        <v>24.45699733110027</v>
       </c>
       <c r="I31" t="n">
-        <v>1.5</v>
+        <v>31.41826429588929</v>
       </c>
       <c r="J31" t="n">
-        <v>1.210526315789474</v>
+        <v>32.64219774998394</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_medium_pressure</t>
+          <t>count_difficult_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>931.7217259436471</v>
+        <v>17.8339447102605</v>
       </c>
       <c r="C32" t="n">
-        <v>913.7543772450674</v>
+        <v>17.20220254275982</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5465829169799821</v>
+        <v>3.67</v>
       </c>
       <c r="E32" t="n">
-        <v>65.71851524998364</v>
+        <v>1.355211729841018</v>
       </c>
       <c r="F32" t="n">
-        <v>37.00748049513097</v>
+        <v>1.930595326425713</v>
       </c>
       <c r="G32" t="n">
-        <v>831.9386842105264</v>
+        <v>15.47222222222222</v>
       </c>
       <c r="H32" t="n">
-        <v>850.9688235294117</v>
+        <v>13.76923076923077</v>
       </c>
       <c r="I32" t="n">
-        <v>997.2430303030302</v>
+        <v>18.87878787878788</v>
       </c>
       <c r="J32" t="n">
-        <v>992.3162162162162</v>
+        <v>20.81081081081081</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_high_pressure</t>
+          <t>pass_completion_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>906.785288144604</v>
+        <v>71.33695550103656</v>
       </c>
       <c r="C33" t="n">
-        <v>892.7463899028037</v>
+        <v>68.94706099595733</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5398932888664617</v>
+        <v>3.47</v>
       </c>
       <c r="E33" t="n">
-        <v>48.97851217106587</v>
+        <v>3.737850830162527</v>
       </c>
       <c r="F33" t="n">
-        <v>41.38362507318402</v>
+        <v>2.546526806578417</v>
       </c>
       <c r="G33" t="n">
-        <v>827.5055263157894</v>
+        <v>66.29435119850909</v>
       </c>
       <c r="H33" t="n">
-        <v>832.6507692307691</v>
+        <v>64.37265538872893</v>
       </c>
       <c r="I33" t="n">
-        <v>947.2791666666667</v>
+        <v>74.6471673940095</v>
       </c>
       <c r="J33" t="n">
-        <v>963.2623684210527</v>
+        <v>73.54020133667503</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_medium_pressure_per_match</t>
+          <t>ball_retention_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.9613769271664</v>
+        <v>71.30174503959033</v>
       </c>
       <c r="C34" t="n">
-        <v>19.54650889143149</v>
+        <v>69.0638554784591</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5293598363976655</v>
+        <v>3.24</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8544217449624706</v>
+        <v>3.800629618816423</v>
       </c>
       <c r="F34" t="n">
-        <v>1.334125031862013</v>
+        <v>2.228912136478401</v>
       </c>
       <c r="G34" t="n">
-        <v>18.66666666666667</v>
+        <v>66.28872255960414</v>
       </c>
       <c r="H34" t="n">
-        <v>16.57692307692308</v>
+        <v>66.02102860864626</v>
       </c>
       <c r="I34" t="n">
-        <v>20.73684210526316</v>
+        <v>75.15010799806254</v>
       </c>
       <c r="J34" t="n">
-        <v>21.13888888888889</v>
+        <v>72.98753728703728</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_medium_pressure</t>
+          <t>count_ball_retentions_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>926.9221650717702</v>
+        <v>85.19790005316321</v>
       </c>
       <c r="C35" t="n">
-        <v>912.096022382739</v>
+        <v>82.7851218831869</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4986740878022135</v>
+        <v>2.91</v>
       </c>
       <c r="E35" t="n">
-        <v>80.20739629900858</v>
+        <v>11.06095979919953</v>
       </c>
       <c r="F35" t="n">
-        <v>44.59755262104306</v>
+        <v>7.332063860610322</v>
       </c>
       <c r="G35" t="n">
-        <v>802.9268421052632</v>
+        <v>70.10526315789474</v>
       </c>
       <c r="H35" t="n">
-        <v>842.9864705882353</v>
+        <v>70.5</v>
       </c>
       <c r="I35" t="n">
-        <v>1004.427272727273</v>
+        <v>96.90909090909091</v>
       </c>
       <c r="J35" t="n">
-        <v>1009.166756756757</v>
+        <v>94.47368421052632</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_high_pressure_per_match</t>
+          <t>pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>85.19790005316321</v>
+        <v>70.91448228882436</v>
       </c>
       <c r="C36" t="n">
-        <v>82.78512188318692</v>
+        <v>68.96108785574469</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4864840959230409</v>
+        <v>2.83</v>
       </c>
       <c r="E36" t="n">
-        <v>11.06095979919953</v>
+        <v>4.979495540077032</v>
       </c>
       <c r="F36" t="n">
-        <v>7.332063860610322</v>
+        <v>2.62624802433742</v>
       </c>
       <c r="G36" t="n">
-        <v>70.10526315789474</v>
+        <v>63.94776721816196</v>
       </c>
       <c r="H36" t="n">
-        <v>70.5</v>
+        <v>64.94998173395231</v>
       </c>
       <c r="I36" t="n">
-        <v>96.90909090909091</v>
+        <v>75.67871258539441</v>
       </c>
       <c r="J36" t="n">
-        <v>94.47368421052632</v>
+        <v>74.22440756090757</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_low_pressure_per_match</t>
+          <t>ball_retention_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.995029239766082</v>
+        <v>69.3708466000846</v>
       </c>
       <c r="C37" t="n">
-        <v>2.858355451358547</v>
+        <v>67.46692332706691</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4841069743676216</v>
+        <v>2.82</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7126136523890197</v>
+        <v>2.642115777813415</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2603554424079442</v>
+        <v>2.321290227904989</v>
       </c>
       <c r="G37" t="n">
-        <v>2.166666666666667</v>
+        <v>65.84081477878846</v>
       </c>
       <c r="H37" t="n">
-        <v>2.485714285714286</v>
+        <v>63.7754921451098</v>
       </c>
       <c r="I37" t="n">
-        <v>3.973684210526316</v>
+        <v>71.99704350474087</v>
       </c>
       <c r="J37" t="n">
-        <v>3.324324324324324</v>
+        <v>71.82156802262065</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_high_pressure_per_match</t>
+          <t>count_forced_losses_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>17.8339447102605</v>
+        <v>3.747448165869218</v>
       </c>
       <c r="C38" t="n">
-        <v>17.20220254275982</v>
+        <v>3.66430324482956</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4815416741613645</v>
+        <v>2.27</v>
       </c>
       <c r="E38" t="n">
-        <v>1.355211729841018</v>
+        <v>0.4881758570191252</v>
       </c>
       <c r="F38" t="n">
-        <v>1.930595326425713</v>
+        <v>0.3563029263546533</v>
       </c>
       <c r="G38" t="n">
-        <v>15.47222222222222</v>
+        <v>3.210526315789474</v>
       </c>
       <c r="H38" t="n">
-        <v>13.76923076923077</v>
+        <v>2.942857142857143</v>
       </c>
       <c r="I38" t="n">
-        <v>18.87878787878788</v>
+        <v>4.473684210526316</v>
       </c>
       <c r="J38" t="n">
-        <v>20.81081081081081</v>
+        <v>4.210526315789473</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_low_pressure_per_match</t>
+          <t>count_forced_losses_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.747448165869218</v>
+        <v>19.9613769271664</v>
       </c>
       <c r="C39" t="n">
-        <v>3.66430324482956</v>
+        <v>19.54650889143149</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3958260195494235</v>
+        <v>2.12</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4881758570191252</v>
+        <v>0.8544217449624706</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3563029263546533</v>
+        <v>1.334125031862013</v>
       </c>
       <c r="G39" t="n">
-        <v>3.210526315789474</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="H39" t="n">
-        <v>2.942857142857143</v>
+        <v>16.57692307692308</v>
       </c>
       <c r="I39" t="n">
-        <v>4.473684210526316</v>
+        <v>20.73684210526316</v>
       </c>
       <c r="J39" t="n">
-        <v>4.210526315789473</v>
+        <v>21.13888888888889</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_low_pressure_per_match</t>
+          <t>count_high_pressures_received_per_match</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.676049973418394</v>
+        <v>115.3307814992025</v>
       </c>
       <c r="C40" t="n">
-        <v>1.574894686814192</v>
+        <v>115.4374163797384</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3897342107221455</v>
+        <v>-0.09</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6039703571442413</v>
+        <v>11.91540436132745</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2383404436652539</v>
+        <v>8.357518432843063</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9473684210526315</v>
+        <v>99.76315789473684</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>99.34615384615384</v>
       </c>
       <c r="I40" t="n">
-        <v>2.526315789473684</v>
+        <v>128.969696969697</v>
       </c>
       <c r="J40" t="n">
-        <v>1.921052631578947</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>count_high_pressures_received_in_sample</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>115.3307814992025</v>
-      </c>
-      <c r="C41" t="n">
-        <v>115.4374163797384</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.3172587690820541</v>
-      </c>
-      <c r="E41" t="n">
-        <v>11.91540436132745</v>
-      </c>
-      <c r="F41" t="n">
-        <v>8.357518432843063</v>
-      </c>
-      <c r="G41" t="n">
-        <v>99.76315789473684</v>
-      </c>
-      <c r="H41" t="n">
-        <v>99.34615384615384</v>
-      </c>
-      <c r="I41" t="n">
-        <v>128.969696969697</v>
-      </c>
-      <c r="J41" t="n">
         <v>125.5405405405405</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>count_high_pressures_received_per_match</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>115.3307814992025</v>
-      </c>
-      <c r="C42" t="n">
-        <v>115.4374163797384</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.3172587690820541</v>
-      </c>
-      <c r="E42" t="n">
-        <v>11.91540436132745</v>
-      </c>
-      <c r="F42" t="n">
-        <v>8.357518432843063</v>
-      </c>
-      <c r="G42" t="n">
-        <v>99.76315789473684</v>
-      </c>
-      <c r="H42" t="n">
-        <v>99.34615384615384</v>
-      </c>
-      <c r="I42" t="n">
-        <v>128.969696969697</v>
-      </c>
-      <c r="J42" t="n">
-        <v>125.5405405405405</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>count_forced_losses_under_high_pressure_per_match</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>30.13288144603934</v>
-      </c>
-      <c r="C43" t="n">
-        <v>32.65229449655147</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.2584663644320479</v>
-      </c>
-      <c r="E43" t="n">
-        <v>1.455367561493193</v>
-      </c>
-      <c r="F43" t="n">
-        <v>2.876988277744153</v>
-      </c>
-      <c r="G43" t="n">
-        <v>28.36111111111111</v>
-      </c>
-      <c r="H43" t="n">
-        <v>26.65384615384615</v>
-      </c>
-      <c r="I43" t="n">
-        <v>32.06060606060606</v>
-      </c>
-      <c r="J43" t="n">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_pressure.xlsx
+++ b/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_pressure.xlsx
@@ -487,31 +487,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.35510366826156</v>
+        <v>13.83319941888836</v>
       </c>
       <c r="C2" t="n">
-        <v>10.23598045652225</v>
+        <v>9.86847938799604</v>
       </c>
       <c r="D2" t="n">
-        <v>40.24</v>
+        <v>40.18</v>
       </c>
       <c r="E2" t="n">
-        <v>3.910715681157689</v>
+        <v>3.606339637060938</v>
       </c>
       <c r="F2" t="n">
-        <v>1.432994726161851</v>
+        <v>1.393324389724304</v>
       </c>
       <c r="G2" t="n">
-        <v>9.789473684210526</v>
+        <v>9.608309861400002</v>
       </c>
       <c r="H2" t="n">
-        <v>7.911764705882353</v>
+        <v>7.466097074790996</v>
       </c>
       <c r="I2" t="n">
-        <v>19.39393939393939</v>
+        <v>18.4756598134299</v>
       </c>
       <c r="J2" t="n">
-        <v>13.35135135135135</v>
+        <v>12.90998678313631</v>
       </c>
     </row>
     <row r="3">
@@ -521,31 +521,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.30683147262095</v>
+        <v>16.65957257666136</v>
       </c>
       <c r="C3" t="n">
-        <v>12.97051329405819</v>
+        <v>12.49036641265695</v>
       </c>
       <c r="D3" t="n">
-        <v>33.43</v>
+        <v>33.38</v>
       </c>
       <c r="E3" t="n">
-        <v>4.310687550778566</v>
+        <v>3.973477369744116</v>
       </c>
       <c r="F3" t="n">
-        <v>1.531097965506567</v>
+        <v>1.461791049141247</v>
       </c>
       <c r="G3" t="n">
-        <v>12.1578947368421</v>
+        <v>11.92165345075503</v>
       </c>
       <c r="H3" t="n">
-        <v>10.55882352941176</v>
+        <v>9.982252237163362</v>
       </c>
       <c r="I3" t="n">
-        <v>22.51515151515152</v>
+        <v>21.4525929128096</v>
       </c>
       <c r="J3" t="n">
-        <v>16.56756756756757</v>
+        <v>15.99573163917673</v>
       </c>
     </row>
     <row r="4">
@@ -555,31 +555,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.18867623604465</v>
+        <v>15.59370393909134</v>
       </c>
       <c r="C4" t="n">
-        <v>12.27095076909318</v>
+        <v>11.82138541727971</v>
       </c>
       <c r="D4" t="n">
-        <v>31.93</v>
+        <v>31.91</v>
       </c>
       <c r="E4" t="n">
-        <v>4.079987661803182</v>
+        <v>3.755411545714889</v>
       </c>
       <c r="F4" t="n">
-        <v>1.593728564202038</v>
+        <v>1.560674231538519</v>
       </c>
       <c r="G4" t="n">
-        <v>11.1578947368421</v>
+        <v>10.93623672314376</v>
       </c>
       <c r="H4" t="n">
-        <v>9.823529411764707</v>
+        <v>9.280137460734132</v>
       </c>
       <c r="I4" t="n">
-        <v>21.3030303030303</v>
+        <v>20.275863757094</v>
       </c>
       <c r="J4" t="n">
-        <v>15.45945945945946</v>
+        <v>14.9719232554186</v>
       </c>
     </row>
     <row r="5">
@@ -589,31 +589,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.259197235513025</v>
+        <v>3.119363726726911</v>
       </c>
       <c r="C5" t="n">
-        <v>2.54192310791382</v>
+        <v>2.440245156461023</v>
       </c>
       <c r="D5" t="n">
-        <v>28.22</v>
+        <v>27.83</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3509515733190581</v>
+        <v>0.3137315770970047</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6135750097390572</v>
+        <v>0.5839863682414331</v>
       </c>
       <c r="G5" t="n">
-        <v>2.815789473684211</v>
+        <v>2.760658438636084</v>
       </c>
       <c r="H5" t="n">
-        <v>1.653846153846154</v>
+        <v>1.579572789200789</v>
       </c>
       <c r="I5" t="n">
-        <v>3.727272727272727</v>
+        <v>3.539943673163451</v>
       </c>
       <c r="J5" t="n">
-        <v>3.54054054054054</v>
+        <v>3.447789514642229</v>
       </c>
     </row>
     <row r="6">
@@ -623,31 +623,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.514460393407761</v>
+        <v>6.23734208725539</v>
       </c>
       <c r="C6" t="n">
-        <v>5.102178582147622</v>
+        <v>4.891342481505492</v>
       </c>
       <c r="D6" t="n">
-        <v>27.68</v>
+        <v>27.52</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6189200661921367</v>
+        <v>0.5888302265288257</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8714620622082803</v>
+        <v>0.8199834364070228</v>
       </c>
       <c r="G6" t="n">
-        <v>5.944444444444445</v>
+        <v>5.551726944994943</v>
       </c>
       <c r="H6" t="n">
-        <v>3.538461538461538</v>
+        <v>3.558480335384085</v>
       </c>
       <c r="I6" t="n">
-        <v>7.393939393939394</v>
+        <v>7.034480936064599</v>
       </c>
       <c r="J6" t="n">
-        <v>6.394736842105263</v>
+        <v>6.025427094891376</v>
       </c>
     </row>
     <row r="7">
@@ -657,235 +657,235 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.93612440191388</v>
+        <v>19.18283405800827</v>
       </c>
       <c r="C7" t="n">
-        <v>15.93525401392274</v>
+        <v>15.33418522377216</v>
       </c>
       <c r="D7" t="n">
-        <v>25.11</v>
+        <v>25.1</v>
       </c>
       <c r="E7" t="n">
-        <v>4.500737977474723</v>
+        <v>4.138524853436654</v>
       </c>
       <c r="F7" t="n">
-        <v>1.674957580654662</v>
+        <v>1.614287591663581</v>
       </c>
       <c r="G7" t="n">
-        <v>14.36842105263158</v>
+        <v>14.07693467630521</v>
       </c>
       <c r="H7" t="n">
-        <v>13.32352941176471</v>
+        <v>12.59960084945975</v>
       </c>
       <c r="I7" t="n">
-        <v>25.27272727272727</v>
+        <v>24.07513281277198</v>
       </c>
       <c r="J7" t="n">
-        <v>19.54054054054054</v>
+        <v>18.88279809212263</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_medium_pressure</t>
+          <t>count_completed_dangerous_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.83067104808772</v>
+        <v>4.517213987735329</v>
       </c>
       <c r="C8" t="n">
-        <v>14.26262018607034</v>
+        <v>3.618699948639625</v>
       </c>
       <c r="D8" t="n">
-        <v>25.02</v>
+        <v>24.83</v>
       </c>
       <c r="E8" t="n">
-        <v>1.629324527950878</v>
+        <v>0.7808485932111909</v>
       </c>
       <c r="F8" t="n">
-        <v>2.57659947104232</v>
+        <v>0.5903185287938354</v>
       </c>
       <c r="G8" t="n">
-        <v>15.8168458994709</v>
+        <v>3.584143593051416</v>
       </c>
       <c r="H8" t="n">
-        <v>10.38063583852045</v>
+        <v>2.883437717229581</v>
       </c>
       <c r="I8" t="n">
-        <v>19.94717571317571</v>
+        <v>5.316936155794318</v>
       </c>
       <c r="J8" t="n">
-        <v>17.92355784493285</v>
+        <v>4.673613508246891</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_high_pressure_per_match</t>
+          <t>dangerous_pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.706884635832004</v>
+        <v>17.16747255953418</v>
       </c>
       <c r="C9" t="n">
-        <v>3.782242670323166</v>
+        <v>13.87881218909822</v>
       </c>
       <c r="D9" t="n">
-        <v>24.45</v>
+        <v>23.7</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8637063819340555</v>
+        <v>1.517701061040908</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6225732970453021</v>
+        <v>2.476576841867759</v>
       </c>
       <c r="G9" t="n">
-        <v>3.684210526315789</v>
+        <v>14.8959700397898</v>
       </c>
       <c r="H9" t="n">
-        <v>3.028571428571428</v>
+        <v>10.14282693545266</v>
       </c>
       <c r="I9" t="n">
-        <v>5.605263157894737</v>
+        <v>18.96347301816437</v>
       </c>
       <c r="J9" t="n">
-        <v>4.921052631578948</v>
+        <v>17.84346896683171</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_medium_pressure_per_match</t>
+          <t>dangerous_pass_completion_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65.06722488038278</v>
+        <v>22.02069704030149</v>
       </c>
       <c r="C10" t="n">
-        <v>53.60573227737314</v>
+        <v>18.07146262175966</v>
       </c>
       <c r="D10" t="n">
-        <v>21.38</v>
+        <v>21.85</v>
       </c>
       <c r="E10" t="n">
-        <v>10.72266491984835</v>
+        <v>2.959353453860112</v>
       </c>
       <c r="F10" t="n">
-        <v>7.08913271481011</v>
+        <v>2.41103257172382</v>
       </c>
       <c r="G10" t="n">
-        <v>47.18421052631579</v>
+        <v>18.12583320447203</v>
       </c>
       <c r="H10" t="n">
-        <v>42.61764705882353</v>
+        <v>14.87773571360609</v>
       </c>
       <c r="I10" t="n">
-        <v>74.45454545454545</v>
+        <v>25.03099732277546</v>
       </c>
       <c r="J10" t="n">
-        <v>66.45945945945945</v>
+        <v>22.93158170297162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_high_pressure</t>
+          <t>count_completed_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.71375406688828</v>
+        <v>62.95749734015892</v>
       </c>
       <c r="C11" t="n">
-        <v>18.72011123602663</v>
+        <v>51.85531700331261</v>
       </c>
       <c r="D11" t="n">
-        <v>21.33</v>
+        <v>21.41</v>
       </c>
       <c r="E11" t="n">
-        <v>3.485144195820843</v>
+        <v>9.90107436522246</v>
       </c>
       <c r="F11" t="n">
-        <v>2.56584181321848</v>
+        <v>6.808766488514798</v>
       </c>
       <c r="G11" t="n">
-        <v>18.31218471343471</v>
+        <v>46.30127959389502</v>
       </c>
       <c r="H11" t="n">
-        <v>15.59855391455391</v>
+        <v>40.31330386984196</v>
       </c>
       <c r="I11" t="n">
-        <v>26.41538661338661</v>
+        <v>70.9460325627859</v>
       </c>
       <c r="J11" t="n">
-        <v>23.8450999789684</v>
+        <v>64.62430652348286</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_low_pressure</t>
+          <t>count_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.615509410932856</v>
+        <v>77.48970163876064</v>
       </c>
       <c r="C12" t="n">
-        <v>5.564669099985386</v>
+        <v>65.51395122176197</v>
       </c>
       <c r="D12" t="n">
-        <v>18.88</v>
+        <v>18.28</v>
       </c>
       <c r="E12" t="n">
-        <v>2.360831154230891</v>
+        <v>10.09235312976282</v>
       </c>
       <c r="F12" t="n">
-        <v>1.004210295002102</v>
+        <v>6.590704820712147</v>
       </c>
       <c r="G12" t="n">
-        <v>4.298941798941799</v>
+        <v>61.16687639398653</v>
       </c>
       <c r="H12" t="n">
-        <v>3.986590332744179</v>
+        <v>55.49314934157447</v>
       </c>
       <c r="I12" t="n">
-        <v>10.20832237937501</v>
+        <v>85.79407392181928</v>
       </c>
       <c r="J12" t="n">
-        <v>7.319627433969539</v>
+        <v>78.01004265469429</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_medium_pressure_per_match</t>
+          <t>dangerous_pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80.17142477405636</v>
+        <v>6.304038907943002</v>
       </c>
       <c r="C13" t="n">
-        <v>67.76975249055744</v>
+        <v>5.371676430377712</v>
       </c>
       <c r="D13" t="n">
-        <v>18.3</v>
+        <v>17.36</v>
       </c>
       <c r="E13" t="n">
-        <v>11.02981363550378</v>
+        <v>2.232186208931865</v>
       </c>
       <c r="F13" t="n">
-        <v>6.986410100674887</v>
+        <v>0.8782238660888489</v>
       </c>
       <c r="G13" t="n">
-        <v>62.39473684210526</v>
+        <v>4.060414537010583</v>
       </c>
       <c r="H13" t="n">
-        <v>58.64705882352941</v>
+        <v>4.009249883432138</v>
       </c>
       <c r="I13" t="n">
-        <v>89.96969696969697</v>
+        <v>9.720047529456998</v>
       </c>
       <c r="J13" t="n">
-        <v>80.24324324324324</v>
+        <v>7.056863267887542</v>
       </c>
     </row>
     <row r="14">
@@ -895,31 +895,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>74.51028708133973</v>
+        <v>72.06459379320886</v>
       </c>
       <c r="C14" t="n">
-        <v>64.06114019813711</v>
+        <v>61.9617726956633</v>
       </c>
       <c r="D14" t="n">
-        <v>16.31</v>
+        <v>16.3</v>
       </c>
       <c r="E14" t="n">
-        <v>10.39803168261347</v>
+        <v>9.467497115826713</v>
       </c>
       <c r="F14" t="n">
-        <v>7.340850791662523</v>
+        <v>7.162664842346862</v>
       </c>
       <c r="G14" t="n">
-        <v>57.1578947368421</v>
+        <v>56.14714920890734</v>
       </c>
       <c r="H14" t="n">
-        <v>53.23529411764706</v>
+        <v>50.36032718556174</v>
       </c>
       <c r="I14" t="n">
-        <v>83.42424242424242</v>
+        <v>79.47905387896975</v>
       </c>
       <c r="J14" t="n">
-        <v>77</v>
+        <v>74.83165979415998</v>
       </c>
     </row>
     <row r="15">
@@ -929,31 +929,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>48.38604790172909</v>
+        <v>47.09494649786234</v>
       </c>
       <c r="C15" t="n">
-        <v>41.75922416937606</v>
+        <v>40.71253207576741</v>
       </c>
       <c r="D15" t="n">
-        <v>15.87</v>
+        <v>15.68</v>
       </c>
       <c r="E15" t="n">
-        <v>5.222599764919785</v>
+        <v>4.407307753424602</v>
       </c>
       <c r="F15" t="n">
-        <v>2.94473477547522</v>
+        <v>3.318112825051774</v>
       </c>
       <c r="G15" t="n">
-        <v>41.59817451408241</v>
+        <v>41.12535439892765</v>
       </c>
       <c r="H15" t="n">
-        <v>37.45310160950161</v>
+        <v>36.12117739920154</v>
       </c>
       <c r="I15" t="n">
-        <v>54.81955808837628</v>
+        <v>52.28133421498961</v>
       </c>
       <c r="J15" t="n">
-        <v>46.74466767916768</v>
+        <v>46.18617325593083</v>
       </c>
     </row>
     <row r="16">
@@ -963,31 +963,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9660021265284424</v>
+        <v>0.9188241539844462</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8409129682194699</v>
+        <v>0.8045322938832</v>
       </c>
       <c r="D16" t="n">
-        <v>14.88</v>
+        <v>14.21</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3655283249896064</v>
+        <v>0.3468988801362403</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1683327200526206</v>
+        <v>0.1535027602425206</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.5856052531994604</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5769230769230769</v>
+        <v>0.5689102415298609</v>
       </c>
       <c r="I16" t="n">
-        <v>1.5</v>
+        <v>1.428700891235248</v>
       </c>
       <c r="J16" t="n">
-        <v>1.210526315789474</v>
+        <v>1.158882571568058</v>
       </c>
     </row>
     <row r="17">
@@ -997,65 +997,65 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16.74178628389155</v>
+        <v>16.09769139157823</v>
       </c>
       <c r="C17" t="n">
-        <v>14.73786154337238</v>
+        <v>14.18245514351734</v>
       </c>
       <c r="D17" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8579917712224376</v>
+        <v>0.9706747237072452</v>
       </c>
       <c r="F17" t="n">
-        <v>1.60742309185437</v>
+        <v>1.505618893676913</v>
       </c>
       <c r="G17" t="n">
-        <v>15.80555555555556</v>
+        <v>15.14389571625846</v>
       </c>
       <c r="H17" t="n">
-        <v>11.73529411764706</v>
+        <v>11.15206479396653</v>
       </c>
       <c r="I17" t="n">
-        <v>17.76315789473684</v>
+        <v>17.43541861792866</v>
       </c>
       <c r="J17" t="n">
-        <v>17.48648648648649</v>
+        <v>16.70828581142854</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_low_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.580595427963849</v>
+        <v>8.052562898112869</v>
       </c>
       <c r="C18" t="n">
-        <v>1.39769684885784</v>
+        <v>7.110058424214894</v>
       </c>
       <c r="D18" t="n">
-        <v>13.09</v>
+        <v>13.26</v>
       </c>
       <c r="E18" t="n">
-        <v>0.423324832869216</v>
+        <v>1.108960920762246</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1731801919244795</v>
+        <v>1.048141999830111</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9444444444444444</v>
+        <v>6.708004746024338</v>
       </c>
       <c r="H18" t="n">
-        <v>1.166666666666667</v>
+        <v>5.64815265421075</v>
       </c>
       <c r="I18" t="n">
-        <v>2.052631578947369</v>
+        <v>8.881984683447522</v>
       </c>
       <c r="J18" t="n">
-        <v>1.736842105263158</v>
+        <v>8.901036117796673</v>
       </c>
     </row>
     <row r="19">
@@ -1065,167 +1065,167 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.47166400850611</v>
+        <v>91.26799782428381</v>
       </c>
       <c r="C19" t="n">
-        <v>83.6076490895686</v>
+        <v>80.82849201567892</v>
       </c>
       <c r="D19" t="n">
-        <v>12.99</v>
+        <v>12.92</v>
       </c>
       <c r="E19" t="n">
-        <v>10.43232543935741</v>
+        <v>9.310859332322385</v>
       </c>
       <c r="F19" t="n">
-        <v>7.468957464025388</v>
+        <v>7.164512909289892</v>
       </c>
       <c r="G19" t="n">
-        <v>77.57894736842105</v>
+        <v>76.18205305401318</v>
       </c>
       <c r="H19" t="n">
-        <v>71.51428571428572</v>
+        <v>68.56018284690543</v>
       </c>
       <c r="I19" t="n">
-        <v>103.8787878787879</v>
+        <v>98.99958341210348</v>
       </c>
       <c r="J19" t="n">
-        <v>96.45945945945945</v>
+        <v>93.73749248589787</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_high_pressure_per_match</t>
+          <t>count_completed_difficult_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.370760233918128</v>
+        <v>1.510414154475491</v>
       </c>
       <c r="C20" t="n">
-        <v>7.408823116315375</v>
+        <v>1.343940772109371</v>
       </c>
       <c r="D20" t="n">
-        <v>12.98</v>
+        <v>12.39</v>
       </c>
       <c r="E20" t="n">
-        <v>1.241928128992514</v>
+        <v>0.4006016263171336</v>
       </c>
       <c r="F20" t="n">
-        <v>1.104134934333449</v>
+        <v>0.161616791534922</v>
       </c>
       <c r="G20" t="n">
-        <v>6.842105263157895</v>
+        <v>0.8823908303144843</v>
       </c>
       <c r="H20" t="n">
-        <v>5.576923076923077</v>
+        <v>1.119983967892213</v>
       </c>
       <c r="I20" t="n">
-        <v>9.333333333333334</v>
+        <v>1.935356446213969</v>
       </c>
       <c r="J20" t="n">
-        <v>9.157894736842104</v>
+        <v>1.655012861875784</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_low_pressure</t>
+          <t>count_completed_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9.82926728522231</v>
+        <v>60.35705093175095</v>
       </c>
       <c r="C21" t="n">
-        <v>8.756925541401015</v>
+        <v>53.86642443136415</v>
       </c>
       <c r="D21" t="n">
-        <v>12.25</v>
+        <v>12.05</v>
       </c>
       <c r="E21" t="n">
-        <v>2.687658155200067</v>
+        <v>8.965215007474171</v>
       </c>
       <c r="F21" t="n">
-        <v>1.195615870601618</v>
+        <v>5.426820509703838</v>
       </c>
       <c r="G21" t="n">
-        <v>5.585917175417176</v>
+        <v>49.52266359897934</v>
       </c>
       <c r="H21" t="n">
-        <v>6.954798281964949</v>
+        <v>44.26028821122707</v>
       </c>
       <c r="I21" t="n">
-        <v>12.51111778572305</v>
+        <v>69.63355394537818</v>
       </c>
       <c r="J21" t="n">
-        <v>10.54791893194525</v>
+        <v>63.21412786933215</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_high_pressure_per_match</t>
+          <t>count_completed_difficult_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.68423710792132</v>
+        <v>7.793108130138789</v>
       </c>
       <c r="C22" t="n">
-        <v>55.91052908333094</v>
+        <v>6.999196062567446</v>
       </c>
       <c r="D22" t="n">
-        <v>12.12</v>
+        <v>11.34</v>
       </c>
       <c r="E22" t="n">
-        <v>9.996482215315146</v>
+        <v>0.3866433052942251</v>
       </c>
       <c r="F22" t="n">
-        <v>5.839150504302594</v>
+        <v>0.8213939856673086</v>
       </c>
       <c r="G22" t="n">
-        <v>50.42105263157895</v>
+        <v>7.408123614861689</v>
       </c>
       <c r="H22" t="n">
-        <v>46.47058823529412</v>
+        <v>5.347910592232108</v>
       </c>
       <c r="I22" t="n">
-        <v>72.87878787878788</v>
+        <v>8.234340299792436</v>
       </c>
       <c r="J22" t="n">
-        <v>66.23684210526316</v>
+        <v>7.996509919765154</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_medium_pressure_per_match</t>
+          <t>difficult_pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8.093646996278576</v>
+        <v>9.447270746766746</v>
       </c>
       <c r="C23" t="n">
-        <v>7.264436153739558</v>
+        <v>8.485924066797262</v>
       </c>
       <c r="D23" t="n">
-        <v>11.41</v>
+        <v>11.33</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3807044093820632</v>
+        <v>2.550079987979367</v>
       </c>
       <c r="F23" t="n">
-        <v>0.874732323456504</v>
+        <v>1.127918647585464</v>
       </c>
       <c r="G23" t="n">
-        <v>7.736842105263158</v>
+        <v>5.234563615903987</v>
       </c>
       <c r="H23" t="n">
-        <v>5.617647058823529</v>
+        <v>6.7336751272746</v>
       </c>
       <c r="I23" t="n">
-        <v>8.636363636363637</v>
+        <v>11.80065608196892</v>
       </c>
       <c r="J23" t="n">
-        <v>8.342105263157896</v>
+        <v>10.12127729716251</v>
       </c>
     </row>
     <row r="24">
@@ -1235,31 +1235,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50.95108855256181</v>
+        <v>49.68462784003754</v>
       </c>
       <c r="C24" t="n">
-        <v>45.76545289614659</v>
+        <v>44.71836983343488</v>
       </c>
       <c r="D24" t="n">
-        <v>11.33</v>
+        <v>11.11</v>
       </c>
       <c r="E24" t="n">
-        <v>4.782831323105285</v>
+        <v>4.164173681930208</v>
       </c>
       <c r="F24" t="n">
-        <v>3.086334154873672</v>
+        <v>3.593004413699257</v>
       </c>
       <c r="G24" t="n">
-        <v>43.86007511348301</v>
+        <v>43.34970928390789</v>
       </c>
       <c r="H24" t="n">
-        <v>41.30532491382491</v>
+        <v>39.75817072633362</v>
       </c>
       <c r="I24" t="n">
-        <v>55.3640909090909</v>
+        <v>53.98322844439765</v>
       </c>
       <c r="J24" t="n">
-        <v>50.58772012273441</v>
+        <v>49.95944009372553</v>
       </c>
     </row>
     <row r="25">
@@ -1269,99 +1269,99 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>79.73354598617757</v>
+        <v>76.74969751504148</v>
       </c>
       <c r="C25" t="n">
-        <v>73.41671268247119</v>
+        <v>70.72879672055363</v>
       </c>
       <c r="D25" t="n">
-        <v>8.6</v>
+        <v>8.51</v>
       </c>
       <c r="E25" t="n">
-        <v>10.57311949807776</v>
+        <v>9.367816787115183</v>
       </c>
       <c r="F25" t="n">
-        <v>5.994052480426662</v>
+        <v>5.309362293340059</v>
       </c>
       <c r="G25" t="n">
-        <v>67.07894736842105</v>
+        <v>65.79117613859749</v>
       </c>
       <c r="H25" t="n">
-        <v>61.30769230769231</v>
+        <v>60.09391484240266</v>
       </c>
       <c r="I25" t="n">
-        <v>90.44736842105263</v>
+        <v>86.47563371513718</v>
       </c>
       <c r="J25" t="n">
-        <v>82.36842105263158</v>
+        <v>78.67156757567868</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_high_pressure_per_match</t>
+          <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>30.13288144603934</v>
+        <v>8.41249797004445</v>
       </c>
       <c r="C26" t="n">
-        <v>32.65229449655147</v>
+        <v>7.780957729219</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.72</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>1.455367561493193</v>
+        <v>0.7332303766476272</v>
       </c>
       <c r="F26" t="n">
-        <v>2.876988277744153</v>
+        <v>0.8829882756292982</v>
       </c>
       <c r="G26" t="n">
-        <v>28.36111111111111</v>
+        <v>7.219197042366157</v>
       </c>
       <c r="H26" t="n">
-        <v>26.65384615384615</v>
+        <v>6.66011110046747</v>
       </c>
       <c r="I26" t="n">
-        <v>32.06060606060606</v>
+        <v>9.132307093088723</v>
       </c>
       <c r="J26" t="n">
-        <v>38</v>
+        <v>9.690524946260044</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
+          <t>count_forced_losses_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8.720414673046253</v>
+        <v>28.93160780075969</v>
       </c>
       <c r="C27" t="n">
-        <v>8.100326025171228</v>
+        <v>31.47025267359777</v>
       </c>
       <c r="D27" t="n">
-        <v>7.66</v>
+        <v>-8.07</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8088271180153909</v>
+        <v>1.242887778910345</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9391695884526888</v>
+        <v>2.500671741013385</v>
       </c>
       <c r="G27" t="n">
-        <v>7.444444444444445</v>
+        <v>27.31163912968989</v>
       </c>
       <c r="H27" t="n">
-        <v>7</v>
+        <v>27.72194873773205</v>
       </c>
       <c r="I27" t="n">
-        <v>9.575757575757576</v>
+        <v>30.52628880454227</v>
       </c>
       <c r="J27" t="n">
-        <v>10.21052631578947</v>
+        <v>35.92875050943569</v>
       </c>
     </row>
     <row r="28">
@@ -1371,99 +1371,99 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.676049973418394</v>
+        <v>1.592974567973747</v>
       </c>
       <c r="C28" t="n">
-        <v>1.574894686814192</v>
+        <v>1.507612589697516</v>
       </c>
       <c r="D28" t="n">
-        <v>6.42</v>
+        <v>5.66</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6039703571442413</v>
+        <v>0.5678847920772089</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2383404436652539</v>
+        <v>0.219587026276694</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9242797126435862</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0.9893092848932264</v>
       </c>
       <c r="I28" t="n">
-        <v>2.526315789473684</v>
+        <v>2.399180835380752</v>
       </c>
       <c r="J28" t="n">
-        <v>1.921052631578947</v>
+        <v>1.841034093971801</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_low_pressure_per_match</t>
+          <t>difficult_pass_completion_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.995029239766082</v>
+        <v>30.85772974566634</v>
       </c>
       <c r="C29" t="n">
-        <v>2.858355451358547</v>
+        <v>29.4595087807024</v>
       </c>
       <c r="D29" t="n">
-        <v>4.78</v>
+        <v>4.75</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7126136523890197</v>
+        <v>0.7699745591280354</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2603554424079442</v>
+        <v>2.570343941899464</v>
       </c>
       <c r="G29" t="n">
-        <v>2.166666666666667</v>
+        <v>29.92125870049438</v>
       </c>
       <c r="H29" t="n">
-        <v>2.485714285714286</v>
+        <v>24.80964694110689</v>
       </c>
       <c r="I29" t="n">
-        <v>3.973684210526316</v>
+        <v>31.84960950287157</v>
       </c>
       <c r="J29" t="n">
-        <v>3.324324324324324</v>
+        <v>34.88394688000852</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_high_pressure</t>
+          <t>count_difficult_pass_attempts_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>31.70851057400719</v>
+        <v>2.864738940870629</v>
       </c>
       <c r="C30" t="n">
-        <v>30.26605501943151</v>
+        <v>2.744147165923916</v>
       </c>
       <c r="D30" t="n">
-        <v>4.77</v>
+        <v>4.39</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8495983207342045</v>
+        <v>0.6737639560750722</v>
       </c>
       <c r="F30" t="n">
-        <v>2.338308255700444</v>
+        <v>0.2424508435279613</v>
       </c>
       <c r="G30" t="n">
-        <v>30.51103964708132</v>
+        <v>2.029669268458242</v>
       </c>
       <c r="H30" t="n">
-        <v>25.93525097125097</v>
+        <v>2.376611449552886</v>
       </c>
       <c r="I30" t="n">
-        <v>32.72941990837445</v>
+        <v>3.78164516776528</v>
       </c>
       <c r="J30" t="n">
-        <v>36.24011710767303</v>
+        <v>3.16517434217535</v>
       </c>
     </row>
     <row r="31">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30.62459094826404</v>
+        <v>29.93879654468842</v>
       </c>
       <c r="C31" t="n">
-        <v>29.36797604428218</v>
+        <v>28.79810380410865</v>
       </c>
       <c r="D31" t="n">
-        <v>4.28</v>
+        <v>3.96</v>
       </c>
       <c r="E31" t="n">
-        <v>1.055255525370763</v>
+        <v>1.239633333170107</v>
       </c>
       <c r="F31" t="n">
-        <v>2.156801425649684</v>
+        <v>2.900046251999812</v>
       </c>
       <c r="G31" t="n">
-        <v>28.82262012062012</v>
+        <v>28.30862929376817</v>
       </c>
       <c r="H31" t="n">
-        <v>24.45699733110027</v>
+        <v>23.44584627044557</v>
       </c>
       <c r="I31" t="n">
-        <v>31.41826429588929</v>
+        <v>31.24002819566737</v>
       </c>
       <c r="J31" t="n">
-        <v>32.64219774998394</v>
+        <v>36.42220136471755</v>
       </c>
     </row>
     <row r="32">
@@ -1507,99 +1507,99 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>17.8339447102605</v>
+        <v>17.18384528706732</v>
       </c>
       <c r="C32" t="n">
-        <v>17.20220254275982</v>
+        <v>16.53331225786203</v>
       </c>
       <c r="D32" t="n">
-        <v>3.67</v>
+        <v>3.93</v>
       </c>
       <c r="E32" t="n">
-        <v>1.355211729841018</v>
+        <v>1.29920014019507</v>
       </c>
       <c r="F32" t="n">
-        <v>1.930595326425713</v>
+        <v>1.778849553425658</v>
       </c>
       <c r="G32" t="n">
-        <v>15.47222222222222</v>
+        <v>14.93615805318249</v>
       </c>
       <c r="H32" t="n">
-        <v>13.76923076923077</v>
+        <v>14.14998484865068</v>
       </c>
       <c r="I32" t="n">
-        <v>18.87878787878788</v>
+        <v>18.15556096481395</v>
       </c>
       <c r="J32" t="n">
-        <v>20.81081081081081</v>
+        <v>19.99448611576302</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_high_pressure</t>
+          <t>ball_retention_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>71.33695550103656</v>
+        <v>69.66935768888001</v>
       </c>
       <c r="C33" t="n">
-        <v>68.94706099595733</v>
+        <v>67.73392893121103</v>
       </c>
       <c r="D33" t="n">
-        <v>3.47</v>
+        <v>2.86</v>
       </c>
       <c r="E33" t="n">
-        <v>3.737850830162527</v>
+        <v>2.934519797650937</v>
       </c>
       <c r="F33" t="n">
-        <v>2.546526806578417</v>
+        <v>4.552367019934056</v>
       </c>
       <c r="G33" t="n">
-        <v>66.29435119850909</v>
+        <v>65.67357260336011</v>
       </c>
       <c r="H33" t="n">
-        <v>64.37265538872893</v>
+        <v>63.00980639560355</v>
       </c>
       <c r="I33" t="n">
-        <v>74.6471673940095</v>
+        <v>71.88005486171394</v>
       </c>
       <c r="J33" t="n">
-        <v>73.54020133667503</v>
+        <v>81.19524844424498</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_medium_pressure</t>
+          <t>pass_completion_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.30174503959033</v>
+        <v>69.47776935274435</v>
       </c>
       <c r="C34" t="n">
-        <v>69.0638554784591</v>
+        <v>67.5963085067548</v>
       </c>
       <c r="D34" t="n">
-        <v>3.24</v>
+        <v>2.78</v>
       </c>
       <c r="E34" t="n">
-        <v>3.800629618816423</v>
+        <v>3.032250705847586</v>
       </c>
       <c r="F34" t="n">
-        <v>2.228912136478401</v>
+        <v>4.321747003362872</v>
       </c>
       <c r="G34" t="n">
-        <v>66.28872255960414</v>
+        <v>65.56629687315132</v>
       </c>
       <c r="H34" t="n">
-        <v>66.02102860864626</v>
+        <v>60.95868848932685</v>
       </c>
       <c r="I34" t="n">
-        <v>75.15010799806254</v>
+        <v>72.30759175283009</v>
       </c>
       <c r="J34" t="n">
-        <v>72.98753728703728</v>
+        <v>79.05031600778267</v>
       </c>
     </row>
     <row r="35">
@@ -1609,31 +1609,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>85.19790005316321</v>
+        <v>81.95505528514039</v>
       </c>
       <c r="C35" t="n">
-        <v>82.7851218831869</v>
+        <v>79.74825189438425</v>
       </c>
       <c r="D35" t="n">
-        <v>2.91</v>
+        <v>2.77</v>
       </c>
       <c r="E35" t="n">
-        <v>11.06095979919953</v>
+        <v>9.717764028819309</v>
       </c>
       <c r="F35" t="n">
-        <v>7.332063860610322</v>
+        <v>6.831890706865283</v>
       </c>
       <c r="G35" t="n">
-        <v>70.10526315789474</v>
+        <v>68.86402315788136</v>
       </c>
       <c r="H35" t="n">
-        <v>70.5</v>
+        <v>67.07494165843585</v>
       </c>
       <c r="I35" t="n">
-        <v>96.90909090909091</v>
+        <v>92.29896160065991</v>
       </c>
       <c r="J35" t="n">
-        <v>94.47368421052632</v>
+        <v>90.42307594967787</v>
       </c>
     </row>
     <row r="36">
@@ -1643,31 +1643,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>70.91448228882436</v>
+        <v>69.20628616464134</v>
       </c>
       <c r="C36" t="n">
-        <v>68.96108785574469</v>
+        <v>67.60655125416311</v>
       </c>
       <c r="D36" t="n">
-        <v>2.83</v>
+        <v>2.37</v>
       </c>
       <c r="E36" t="n">
-        <v>4.979495540077032</v>
+        <v>4.229406095569144</v>
       </c>
       <c r="F36" t="n">
-        <v>2.62624802433742</v>
+        <v>4.661907290727581</v>
       </c>
       <c r="G36" t="n">
-        <v>63.94776721816196</v>
+        <v>63.3409090916464</v>
       </c>
       <c r="H36" t="n">
-        <v>64.94998173395231</v>
+        <v>61.53785168625087</v>
       </c>
       <c r="I36" t="n">
-        <v>75.67871258539441</v>
+        <v>72.28136389808543</v>
       </c>
       <c r="J36" t="n">
-        <v>74.22440756090757</v>
+        <v>80.44985770118041</v>
       </c>
     </row>
     <row r="37">
@@ -1677,31 +1677,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>69.3708466000846</v>
+        <v>67.65907943329671</v>
       </c>
       <c r="C37" t="n">
-        <v>67.46692332706691</v>
+        <v>66.11674861891917</v>
       </c>
       <c r="D37" t="n">
-        <v>2.82</v>
+        <v>2.33</v>
       </c>
       <c r="E37" t="n">
-        <v>2.642115777813415</v>
+        <v>1.950597986769082</v>
       </c>
       <c r="F37" t="n">
-        <v>2.321290227904989</v>
+        <v>4.123782961749064</v>
       </c>
       <c r="G37" t="n">
-        <v>65.84081477878846</v>
+        <v>65.30251144221495</v>
       </c>
       <c r="H37" t="n">
-        <v>63.7754921451098</v>
+        <v>60.42032283361985</v>
       </c>
       <c r="I37" t="n">
-        <v>71.99704350474087</v>
+        <v>69.9864686633582</v>
       </c>
       <c r="J37" t="n">
-        <v>71.82156802262065</v>
+        <v>77.28438484741231</v>
       </c>
     </row>
     <row r="38">
@@ -1711,31 +1711,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.747448165869218</v>
+        <v>3.589130118916932</v>
       </c>
       <c r="C38" t="n">
-        <v>3.66430324482956</v>
+        <v>3.512799806492452</v>
       </c>
       <c r="D38" t="n">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4881758570191252</v>
+        <v>0.4514728515963732</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3563029263546533</v>
+        <v>0.3302341399653596</v>
       </c>
       <c r="G38" t="n">
-        <v>3.210526315789474</v>
+        <v>3.140697953161452</v>
       </c>
       <c r="H38" t="n">
-        <v>2.942857142857143</v>
+        <v>2.807465580446539</v>
       </c>
       <c r="I38" t="n">
-        <v>4.473684210526316</v>
+        <v>4.268021780432877</v>
       </c>
       <c r="J38" t="n">
-        <v>4.210526315789473</v>
+        <v>4.008119246520345</v>
       </c>
     </row>
     <row r="39">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.9613769271664</v>
+        <v>19.20340403107496</v>
       </c>
       <c r="C39" t="n">
-        <v>19.54650889143149</v>
+        <v>18.86671932001562</v>
       </c>
       <c r="D39" t="n">
-        <v>2.12</v>
+        <v>1.78</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8544217449624706</v>
+        <v>0.9211604810776979</v>
       </c>
       <c r="F39" t="n">
-        <v>1.334125031862013</v>
+        <v>1.088830641488571</v>
       </c>
       <c r="G39" t="n">
-        <v>18.66666666666667</v>
+        <v>17.99808077023203</v>
       </c>
       <c r="H39" t="n">
-        <v>16.57692307692308</v>
+        <v>16.78804206887002</v>
       </c>
       <c r="I39" t="n">
-        <v>20.73684210526316</v>
+        <v>20.03490384510583</v>
       </c>
       <c r="J39" t="n">
-        <v>21.13888888888889</v>
+        <v>20.39980137870329</v>
       </c>
     </row>
     <row r="40">
@@ -1779,31 +1779,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>115.3307814992025</v>
+        <v>110.8866630859001</v>
       </c>
       <c r="C40" t="n">
-        <v>115.4374163797384</v>
+        <v>111.218504567982</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.09</v>
+        <v>-0.3</v>
       </c>
       <c r="E40" t="n">
-        <v>11.91540436132745</v>
+        <v>10.27658749351956</v>
       </c>
       <c r="F40" t="n">
-        <v>8.357518432843063</v>
+        <v>7.462194691139966</v>
       </c>
       <c r="G40" t="n">
-        <v>99.76315789473684</v>
+        <v>97.81811959896311</v>
       </c>
       <c r="H40" t="n">
-        <v>99.34615384615384</v>
+        <v>95.49673473966499</v>
       </c>
       <c r="I40" t="n">
-        <v>128.969696969697</v>
+        <v>122.8252504052022</v>
       </c>
       <c r="J40" t="n">
-        <v>125.5405405405405</v>
+        <v>121.380398610189</v>
       </c>
     </row>
   </sheetData>
